--- a/data/hotels_by_city/Houston/Houston_shard_79.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_79.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56144-d1549592-Reviews-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-League-City.h2958797.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1304 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r581053693-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56144</t>
+  </si>
+  <si>
+    <t>1549592</t>
+  </si>
+  <si>
+    <t>581053693</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>THE BEST PLACE EVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've never been to a place where the staff is just so sweet and understanding!! Makes you feel at home... The gentlemen that worked the front desk on May 17 and also May 18 is the sweetest thing ever.. Thank you from the bottom of our hearts for welcoming us with open arms and treating us like family... I recommend this place to any family that wants nothing but happy thoughts and welcomed with open arms. God Bless You to the gentleman that helped my husband and myself! </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r578702614-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>578702614</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay </t>
+  </si>
+  <si>
+    <t>Candlewood Suites is a great hotel to stay at the staff is very friendly there rooms are nice and they have free wi-Fi and they also have a pool and workout room with washers and dryers. And the location is great there’s a bunch of great restaurants very close by.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r576553360-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>576553360</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Nice staff</t>
+  </si>
+  <si>
+    <t>We stayed for a day before our cruise out and it was a perfect place to stay. The staff was extremely friendly and the price was good.cant go wrong!! Our rooms were large with a full kitchen in it. Right on the way to Galveston as well.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r546860308-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>546860308</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>FEMA stay</t>
+  </si>
+  <si>
+    <t>We have been in  the Candlewood Suites for about two months now due to Harvey. All the staff has been real nice. And have gone out of there way to make things more comfortable for all us staying there. I would recommend Candlewood Suites to anyone who is needing a place to stay for just a night or for months. The staff is awesome, the rooms are clean and free washers and dryers.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r498659023-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>498659023</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Pre cruise stay</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights before our cruise and loved it.  It's a great location and very clean. Since we had been traveling for several days, we needed to do some laundry before we got on the ship and was pleased to find free washing machines for guest use.  We would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>CandlewoodSuiteslct, Manager at Candlewood Suites League City, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights before our cruise and loved it.  It's a great location and very clean. Since we had been traveling for several days, we needed to do some laundry before we got on the ship and was pleased to find free washing machines for guest use.  We would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r485746441-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>485746441</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine for a night </t>
+  </si>
+  <si>
+    <t>I stayed here with my daughter for one night.   The location is good with easy access to I-45 and the property is relatively new.   The staff provides good service and is friendly.   The rooms are generally clean but ours was showing signs of wear - the shower curtain and upholstery were warn and had tears.    MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>CandlewoodSuiteslct, Manager at Candlewood Suites League City, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here with my daughter for one night.   The location is good with easy access to I-45 and the property is relatively new.   The staff provides good service and is friendly.   The rooms are generally clean but ours was showing signs of wear - the shower curtain and upholstery were warn and had tears.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r466637419-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>466637419</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Great for cruisers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We needed a place to stay before our cruise ship departing Galveston. Found this hotel to be very accommodating. Nearby restaurants and shopping just minutes from Port of Galveston. Right off the Gulf Freeway. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r458837418-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>458837418</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Great Stopover on the way to Port</t>
+  </si>
+  <si>
+    <t>My parents and I stopped in here on our way to Galveston port to board a Carnival Cruise. The check in process was easy, smooth and pleasant, though the front desk could have benefited from one more person on staff. The room was comfortable for 3 people, and there were lots of restaurant and shopping nearby. Internet worked great, beds were comfortable, shower had great water pressure and hot water supply. Air conditioning was surprisingly a window unit, but worked adequately.  Unfortunately, we didn't have time to appreciate all of the amenities available in the room, but it was a very nice hotel, and I would gladly book it again if the need arose. Very pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>My parents and I stopped in here on our way to Galveston port to board a Carnival Cruise. The check in process was easy, smooth and pleasant, though the front desk could have benefited from one more person on staff. The room was comfortable for 3 people, and there were lots of restaurant and shopping nearby. Internet worked great, beds were comfortable, shower had great water pressure and hot water supply. Air conditioning was surprisingly a window unit, but worked adequately.  Unfortunately, we didn't have time to appreciate all of the amenities available in the room, but it was a very nice hotel, and I would gladly book it again if the need arose. Very pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r456006318-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>456006318</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Very welcoming and warming</t>
+  </si>
+  <si>
+    <t>Loved the pull out couch, nice big bathroom, nice kitchen, great for families. Although, the bed wasn't comfortable. Otherwise, the hotel was very nice. Great for famileis. Very clean and neat. The view in the back wasn't that nice.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r451489462-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>451489462</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>One night stay before cruising. 20 min. From cruise terminal. New, priced right, smaller room, clean, close to mall and many places to eat. No breakfast included. A few turns involved getting there use your google.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded January 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2017</t>
+  </si>
+  <si>
+    <t>One night stay before cruising. 20 min. From cruise terminal. New, priced right, smaller room, clean, close to mall and many places to eat. No breakfast included. A few turns involved getting there use your google.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r443597073-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>443597073</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Roomy, clean, well appointed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This wa my first stay at Candlewood Suites. I got a 1 bedroom queen suite. The room was very nice with plenty of room, a tv in the bedroom and living area, and a small kitchen with microwave, full size fridge, dishwasher, garbage disposal, and full compliment of dishes, glasses, pots and pans, silverware and cooking utensils. I only stayed one night but would love to stay at Candlewood for an extended stay. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r434603176-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>434603176</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Peace &amp; Quiet</t>
+  </si>
+  <si>
+    <t>Bad: The smell in my room was horrible! It smelled like old mild dew. I think they should open the window and let the rooms air itself out. I don’t know if they had a floor or roof damage because I was on the 3rd floor. I went to the nearby Dollar Tree to buy some air fresheners and it worked for a while.  I didn’t alert the front desk because I had too much stuff to move for my 3 days and 2 night stay. I ended up checking out at 9am instead of 11am on the last day just to get away from the smell.
+Good: I love the concept of the hotel room. It reminds me of a studio apartment. It has a regular size refrigerator, a big size microwave oven, dishwasher, kitchen sink, stove, TV, iron/board and a small table. The bed and pillows was so comfortable. I like the nice size restroom and the extra closet space for your clothes. They also have a cookware and utensils to use for cooking. I didn’t use it but they have an onsite workout room, free DVD’s (located at the front desk), and free washer and dryer to use. Due to the fact you are able to cook in your room, they don’t have complimentary breakfast at this location…sorry about guys. They had a lot of parking no matter what time you come in. The location is great!...Bad: The smell in my room was horrible! It smelled like old mild dew. I think they should open the window and let the rooms air itself out. I don’t know if they had a floor or roof damage because I was on the 3rd floor. I went to the nearby Dollar Tree to buy some air fresheners and it worked for a while.  I didn’t alert the front desk because I had too much stuff to move for my 3 days and 2 night stay. I ended up checking out at 9am instead of 11am on the last day just to get away from the smell.Good: I love the concept of the hotel room. It reminds me of a studio apartment. It has a regular size refrigerator, a big size microwave oven, dishwasher, kitchen sink, stove, TV, iron/board and a small table. The bed and pillows was so comfortable. I like the nice size restroom and the extra closet space for your clothes. They also have a cookware and utensils to use for cooking. I didn’t use it but they have an onsite workout room, free DVD’s (located at the front desk), and free washer and dryer to use. Due to the fact you are able to cook in your room, they don’t have complimentary breakfast at this location…sorry about guys. They had a lot of parking no matter what time you come in. The location is great! It’s close to the main Highway 45. There’s a lot of shopping centers, restaurant, mall nearby in the area. The lady at the front desk (forgot her name) was so pleasant and nice. They had freshly baked cookies in the lobby of the hotel daily….mmm mmm good!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded November 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2016</t>
+  </si>
+  <si>
+    <t>Bad: The smell in my room was horrible! It smelled like old mild dew. I think they should open the window and let the rooms air itself out. I don’t know if they had a floor or roof damage because I was on the 3rd floor. I went to the nearby Dollar Tree to buy some air fresheners and it worked for a while.  I didn’t alert the front desk because I had too much stuff to move for my 3 days and 2 night stay. I ended up checking out at 9am instead of 11am on the last day just to get away from the smell.
+Good: I love the concept of the hotel room. It reminds me of a studio apartment. It has a regular size refrigerator, a big size microwave oven, dishwasher, kitchen sink, stove, TV, iron/board and a small table. The bed and pillows was so comfortable. I like the nice size restroom and the extra closet space for your clothes. They also have a cookware and utensils to use for cooking. I didn’t use it but they have an onsite workout room, free DVD’s (located at the front desk), and free washer and dryer to use. Due to the fact you are able to cook in your room, they don’t have complimentary breakfast at this location…sorry about guys. They had a lot of parking no matter what time you come in. The location is great!...Bad: The smell in my room was horrible! It smelled like old mild dew. I think they should open the window and let the rooms air itself out. I don’t know if they had a floor or roof damage because I was on the 3rd floor. I went to the nearby Dollar Tree to buy some air fresheners and it worked for a while.  I didn’t alert the front desk because I had too much stuff to move for my 3 days and 2 night stay. I ended up checking out at 9am instead of 11am on the last day just to get away from the smell.Good: I love the concept of the hotel room. It reminds me of a studio apartment. It has a regular size refrigerator, a big size microwave oven, dishwasher, kitchen sink, stove, TV, iron/board and a small table. The bed and pillows was so comfortable. I like the nice size restroom and the extra closet space for your clothes. They also have a cookware and utensils to use for cooking. I didn’t use it but they have an onsite workout room, free DVD’s (located at the front desk), and free washer and dryer to use. Due to the fact you are able to cook in your room, they don’t have complimentary breakfast at this location…sorry about guys. They had a lot of parking no matter what time you come in. The location is great! It’s close to the main Highway 45. There’s a lot of shopping centers, restaurant, mall nearby in the area. The lady at the front desk (forgot her name) was so pleasant and nice. They had freshly baked cookies in the lobby of the hotel daily….mmm mmm good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r421034740-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>421034740</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Impressed! Great suite! Would def stay again!</t>
+  </si>
+  <si>
+    <t>I was ordered to stay here for a week on a business trip. I was not very optimistic because my employer picked this hotel for its affordable prices and did not offer a me a choice of hotels. Knowing my cheapskate employer, I expected the the worst &amp; since the price great I expected there would be a catch. However, I was pleasantly surprised and have been so impressed!! Friendly staff, AK at the front desk was especially helpful &amp; nice... Full sized refrigerator with ice maker, stove, microwave, dishwasher and granite counters. Dishes, pots and pans and silverware in cabinets. A recliner, nice bedding and HBO channels, free washers and dryers, &amp; very conveniently located. It takes 25 minutes to drive to the beaches in Galveston, which I do every night after work. Wish I  could just move in and live here, lol.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I was ordered to stay here for a week on a business trip. I was not very optimistic because my employer picked this hotel for its affordable prices and did not offer a me a choice of hotels. Knowing my cheapskate employer, I expected the the worst &amp; since the price great I expected there would be a catch. However, I was pleasantly surprised and have been so impressed!! Friendly staff, AK at the front desk was especially helpful &amp; nice... Full sized refrigerator with ice maker, stove, microwave, dishwasher and granite counters. Dishes, pots and pans and silverware in cabinets. A recliner, nice bedding and HBO channels, free washers and dryers, &amp; very conveniently located. It takes 25 minutes to drive to the beaches in Galveston, which I do every night after work. Wish I  could just move in and live here, lol.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r419944322-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>419944322</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>Stayed at this location while visiting doctor at UTMB. It was very clean hotel, friendly staff and comfortable room. Room came with full Kitchen with everything you need to cook and eat with.  Price was plus.  It felt like home away from home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r419467564-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>419467564</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Pet Approved</t>
+  </si>
+  <si>
+    <t>First I would like to say to the person below about the pet thing she wrote. You may have just heard wrong bc when I asked over the phone they clarified everything and I didn't need them to ask a manger for more info or anything like that. But back to my stay at Candlewood with my dog, they treated me very well and they let me know about the pet station which helped. My dog enjoyed the room. Smelled very nice and maintained. Great staff and housekeeping</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r418692137-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>418692137</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay at Candalwood Suites in League City, TX</t>
+  </si>
+  <si>
+    <t>We stayed four nights due to child surgery at the nearby UTMB medical facility.  Clean, comfortable, spacious room with great kitchen set-up that eliminated the need to eat out.  Nearby Kroger food store had adequate organic offerings.  Excellent facility for the price.  Outstanding staff, very helpful, friendly and caring.  Front desk manager, Akshar, was a gem and extremely customer-oriented.  Would definitely recommend this facility to others, and would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r415346654-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>415346654</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Friendly, clean &amp; recommend for a short stay or long.   Would definitely stay again.  Like the setup of kitchen &amp; most useful utensils to at least fix meals to help keep cost down on any trip.  The beds were very comfortable</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r411206324-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>411206324</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Very friendly</t>
+  </si>
+  <si>
+    <t>We stayed here one night before our cruise. Close to tons of shopping and food Walmart about a mile away. Clean with kitchen and big bathroom. We used computer and printer in the lobby but it wouldn't print, but desk person gladly let us use the desk computer and printer all for free. About 22 minutes from the Galveston cruise port and Galveston beach area without the beach price</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r371799440-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>371799440</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Nice but lumpy pillows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean but had the worst pillows. Very lumpy. The poor quality of the pillows really surprised me since it is a very nice hotel. I do wish they served a hot breakfast! And had afternoon treats. Their services are really sparse considering the room rates. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r363889371-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>363889371</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Family visit - great place to stay - quiet and clean!</t>
+  </si>
+  <si>
+    <t>Very nice location - close to shopping and restaurants.  Room had full kitchen, lazy-boy chair and room was open nice lay-out. - Hotel staff very friendly and helpful.  Clean, quiet and had all the things we needed.  Outdoor pool was a bit small but fine for a quick dip..no served food at this location...but they did have some snack type food items/and personal items you could buy...Would definitely stay there again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>CandlewoodSuiteslct, Manager at Candlewood Suites League City, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Very nice location - close to shopping and restaurants.  Room had full kitchen, lazy-boy chair and room was open nice lay-out. - Hotel staff very friendly and helpful.  Clean, quiet and had all the things we needed.  Outdoor pool was a bit small but fine for a quick dip..no served food at this location...but they did have some snack type food items/and personal items you could buy...Would definitely stay there again if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r362531742-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>362531742</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Great visit and nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed in March 2016 for two nights. We had our two teenage kids and our dog travelling with us. This Candlewood Suites in only one of a handful of hotels who will accept large dogs without ridiculous fees and deposits. The hotel is about 20-25 minutes from Galveston Island. It is located adjacent to several sit down restaurants, several fast-food places, Walmart, HEB and a Cabelas. The check-in process was smooth, the front desk personnel friendly and the lobby clean. They have a pool in the rear of the hotel which is nice since many Candlewood's don't. The hotel is equipped with free Wi-Fi internet throughout.The room we stayed in was a one bedroom suite with a queen sized bed. The bedroom had a flat screen TV, its own air conditioner and was roomy. In the living room area there is a full sized sofa bed with a very uncomfortable mattress, even by sofa bed standards. Needless to say, the kids were not too happy about the sofa bed mattress. There was a recliner, an office chair, desk, flat screen TV and its own air conditioner. The attached kitchen was clean with a full size refrigerator, range and microwave. No oven though. Overall the room and bathroom were clean with no odors. The hotel itself was quiet and in a convenient location. We would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We stayed in March 2016 for two nights. We had our two teenage kids and our dog travelling with us. This Candlewood Suites in only one of a handful of hotels who will accept large dogs without ridiculous fees and deposits. The hotel is about 20-25 minutes from Galveston Island. It is located adjacent to several sit down restaurants, several fast-food places, Walmart, HEB and a Cabelas. The check-in process was smooth, the front desk personnel friendly and the lobby clean. They have a pool in the rear of the hotel which is nice since many Candlewood's don't. The hotel is equipped with free Wi-Fi internet throughout.The room we stayed in was a one bedroom suite with a queen sized bed. The bedroom had a flat screen TV, its own air conditioner and was roomy. In the living room area there is a full sized sofa bed with a very uncomfortable mattress, even by sofa bed standards. Needless to say, the kids were not too happy about the sofa bed mattress. There was a recliner, an office chair, desk, flat screen TV and its own air conditioner. The attached kitchen was clean with a full size refrigerator, range and microwave. No oven though. Overall the room and bathroom were clean with no odors. The hotel itself was quiet and in a convenient location. We would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r348293418-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>348293418</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Good price online</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable.  The staff were friendly and helpful.  We needed a decent place to stay the night before a cruise, and this one fit the bill.  There were some maintenance issues with our room - like a cracked bathroom door with a hole in it.  The desk clerk seemed surprised that it hadn't been reported before, but said that there had been a rowdy college group the week before and made no attempt to blame us.  Rather noisy between midnight and two a.m. from around the pool outside. It seemed to be a group of young men playing cornhole. I could have called to complain, but didn't. I really can't complain for the price I paid!  And I would probably go back...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable.  The staff were friendly and helpful.  We needed a decent place to stay the night before a cruise, and this one fit the bill.  There were some maintenance issues with our room - like a cracked bathroom door with a hole in it.  The desk clerk seemed surprised that it hadn't been reported before, but said that there had been a rowdy college group the week before and made no attempt to blame us.  Rather noisy between midnight and two a.m. from around the pool outside. It seemed to be a group of young men playing cornhole. I could have called to complain, but didn't. I really can't complain for the price I paid!  And I would probably go back...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r346017827-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>346017827</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Place </t>
+  </si>
+  <si>
+    <t>Clean room, good water pressure, nice kitchen, free laundry facilities friendly staff and well maintained and great rates. Pet friendly for a fee. Nice variety in pantry like food and drinks. Free coffee.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r345478707-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>345478707</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Brilliant</t>
+  </si>
+  <si>
+    <t>My wife and I are doing a 3 month roadtrip, we have been going now for about 10 days, staying in various budget motels etc. This has been the best by a country mile. Great room, modern, well equipped and very helpful staff . So much so that as we travel onwards we look up Candlewood Suites before anything else. We only paid £50 for the 1 night. Great value.Now in Dallas at another Candlewood.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r334021258-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>334021258</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>My experiece at the Candlewood Suites League City, Overall The Front Desk Manager AK</t>
+  </si>
+  <si>
+    <t>I usually don't write reviews, This stay really meant a lot, wanted to Rate Candlewood Suites a 10, From  the moment i checked in  a very friendly young lady greeted me, The highlight was the front Desk Manager AK, I'm bad with names but he was Awesome, the first time meeting him he introduced himself, nad made my expierece feel like home. I travel a lot that is never done. While going through a disater, he made my stay feel like a trip, these days hospitality is not the same rarely see that,This Manager and staff was the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>CandlewoodSuiteslct, Manager at Candlewood Suites League City, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>I usually don't write reviews, This stay really meant a lot, wanted to Rate Candlewood Suites a 10, From  the moment i checked in  a very friendly young lady greeted me, The highlight was the front Desk Manager AK, I'm bad with names but he was Awesome, the first time meeting him he introduced himself, nad made my expierece feel like home. I travel a lot that is never done. While going through a disater, he made my stay feel like a trip, these days hospitality is not the same rarely see that,This Manager and staff was the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r332001361-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>332001361</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Pet friendly and cheap</t>
+  </si>
+  <si>
+    <t>The main reason we stayed here was because it was pet friendly, and quite frankly, that is the only reason I'd stay there again when in League City.  It is not in a nice area, they only clean the rooms once per week, it had shady clientele, poor furnishings and strange room arrangement, and the heating/cooling system rarely worked properly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>The main reason we stayed here was because it was pet friendly, and quite frankly, that is the only reason I'd stay there again when in League City.  It is not in a nice area, they only clean the rooms once per week, it had shady clientele, poor furnishings and strange room arrangement, and the heating/cooling system rarely worked properly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r328693641-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>328693641</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Best hotel ever!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I usually don't write reviews but i had to with this hotel. It is by far the best hotel i've ever stayed in!!!!!!!! I've stayed at numerous hotels and they all seem kind of the same, you know the snooty front desk person that acts like she just has better things to do than to help you. smh. This place was TOTALLY different. Everyone was just genually nice there. There was a guy at the front desk named AK or something like that that just goes over and beyond just to help. Then a lady named Sue sat there and played with my 2 yr old son. She had him giggling like no other. I had this vibe the whole time i was there that i just cant explain. It just felt so good and peaceful like i was suppost to be there. In my opinion this is a 5 star hotel for a 2 1/2 star price. LOVED IT!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I usually don't write reviews but i had to with this hotel. It is by far the best hotel i've ever stayed in!!!!!!!! I've stayed at numerous hotels and they all seem kind of the same, you know the snooty front desk person that acts like she just has better things to do than to help you. smh. This place was TOTALLY different. Everyone was just genually nice there. There was a guy at the front desk named AK or something like that that just goes over and beyond just to help. Then a lady named Sue sat there and played with my 2 yr old son. She had him giggling like no other. I had this vibe the whole time i was there that i just cant explain. It just felt so good and peaceful like i was suppost to be there. In my opinion this is a 5 star hotel for a 2 1/2 star price. LOVED IT!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r322977636-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>322977636</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Let me start by stating that I spend between 200-250 night a year in motels around the country. While most are just the same old same old, this one is different. AK and his staff go above and beyond to make things as perfect as possible. The rooms are some of if not the cleanest that I have seen. Anything that we needed durring our stay was taken care of by the staff. The management went out of their way to make sure that we were as comfortable as possible. I rarely look forward to returning to the places thatg I stay but this is THE exception to that. I highly reccomend this place to anyone looking to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Let me start by stating that I spend between 200-250 night a year in motels around the country. While most are just the same old same old, this one is different. AK and his staff go above and beyond to make things as perfect as possible. The rooms are some of if not the cleanest that I have seen. Anything that we needed durring our stay was taken care of by the staff. The management went out of their way to make sure that we were as comfortable as possible. I rarely look forward to returning to the places thatg I stay but this is THE exception to that. I highly reccomend this place to anyone looking to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r322782024-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>322782024</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommend </t>
+  </si>
+  <si>
+    <t>Stayed here for work for 4 weeks, me and 8 coworkers, decent rates, clean room, staff was excellent and went out of their way to accommodate us, will definitely stay here if life brings me back to the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for work for 4 weeks, me and 8 coworkers, decent rates, clean room, staff was excellent and went out of their way to accommodate us, will definitely stay here if life brings me back to the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r320262282-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>320262282</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My visit at Candlewood Suites </t>
+  </si>
+  <si>
+    <t>I transferred to League City from Houston in my job. Stayed at Candlewood Suites while I was looking for an apartment. I am handicapped. The staff has gone above and beyond for anything I need. They are so warm and friendly. It has made my transitioning so much easier. I highly recommend Candlewood Suites to anyone. Five stars!   MoreShow less</t>
+  </si>
+  <si>
+    <t>I transferred to League City from Houston in my job. Stayed at Candlewood Suites while I was looking for an apartment. I am handicapped. The staff has gone above and beyond for anything I need. They are so warm and friendly. It has made my transitioning so much easier. I highly recommend Candlewood Suites to anyone. Five stars!   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r318143148-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>318143148</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Amazing Hotel!!!</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for over 13 weeks 5/15 - 8/15. They have new management who came in and immediately started to implement changes for the better. Before the new management, it was an extremely clean, accommodating, great value for the money. After the new management came in, it became the hotel that rivals some of the best hotels I've ever stayed in. I've stayed in Hotel's ranging from the Biltmore in Los Angeles to the Ritz in New York city. The location is amazing! If you're in town for the beach or working in the city. There is everything you need within a 2 mile radius, and you don't have to deal with the ridiculous city traffic. I've never felt more at home in a hotel. I don't know where they find such friendly staff. Every staff member there, from the owners to the facilities managers, will bend over backward to make your stay as enjoyable as possible. One of the cleanest places I've come across. TOP NOTCH! It is impossible to find a better value! I've paid double to stay in places nowhere near as nice! I'm racking my brain to point out at least one negative, but, I'm drawing a blank. I am definitely looking forward to staying there again in the near future!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for over 13 weeks 5/15 - 8/15. They have new management who came in and immediately started to implement changes for the better. Before the new management, it was an extremely clean, accommodating, great value for the money. After the new management came in, it became the hotel that rivals some of the best hotels I've ever stayed in. I've stayed in Hotel's ranging from the Biltmore in Los Angeles to the Ritz in New York city. The location is amazing! If you're in town for the beach or working in the city. There is everything you need within a 2 mile radius, and you don't have to deal with the ridiculous city traffic. I've never felt more at home in a hotel. I don't know where they find such friendly staff. Every staff member there, from the owners to the facilities managers, will bend over backward to make your stay as enjoyable as possible. One of the cleanest places I've come across. TOP NOTCH! It is impossible to find a better value! I've paid double to stay in places nowhere near as nice! I'm racking my brain to point out at least one negative, but, I'm drawing a blank. I am definitely looking forward to staying there again in the near future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r315234112-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>315234112</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay awesome staff</t>
+  </si>
+  <si>
+    <t>The staff was amazing and very family oriented, quick response to request. Nice pool, and the BBQ grill was always clean, the rooms were nice with the full sized refrigerator and cook top with all the pots and pans. The staff made it feel like my home away from home. Nice to have a DVDs player in the room and options to rent a DVD. Definitely will stay here again I believe this has been my best hotel visit I ever had.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r312837482-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>312837482</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great hotel...new management...very friendly staff!  Very responsive to all our needs!  Great location and nice clean room!  The suite had a great kitchen with a full fridge, microwave, cook stove, and coffee maker.  Also very nice pots/pans and dish ware.  They have an exchange at the front desk where you can checkout games, movies, books and other cookware (I.e. Crockpot, etc).</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r298790068-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>298790068</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Great Stay for Family Reunion!</t>
+  </si>
+  <si>
+    <t>We recently stayed at the property for the weekend due to out family reunion being in the area. The hotel staff was very gracious to us the minute we walked in the door. They were well prepared for out large group (around 40 of us total) and made us feel welcome.The full kitchens were stocked nicely and since we were staying with children, it made preparing meals so easy. We used the grill at the pool area and we were able to cookout and have a great family gathering for lunch!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r286229988-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>286229988</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>16th Wedding Anniversary</t>
+  </si>
+  <si>
+    <t>The weekend getaway with my husband was awesome. The hotel was in the perfect location and very close to Galveston. There are local stores in close range to get last minute items such as Walmart. The only con was the family next door to us had a dog and the dog was yipping so much that I had to call the front office to report the yipping. We were trying to sleep but it was unbearable. Other than that it was an awesome get away. Friendly stay, clean room and very comfortable bed. Will stay again.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r267429209-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>267429209</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Worst experience ever</t>
+  </si>
+  <si>
+    <t>I travel all over the place and this hotel is the worst I've never felt so uncomfortable The staff is rude and incompetent. The manager is an idiot and while she was talking to one of the guests she made sexual references like I'll come see you upstairs when my shift is over. Plus weird credit card charges and blaming it on the system. Oh man don't ever stay there.  MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2015</t>
+  </si>
+  <si>
+    <t>I travel all over the place and this hotel is the worst I've never felt so uncomfortable The staff is rude and incompetent. The manager is an idiot and while she was talking to one of the guests she made sexual references like I'll come see you upstairs when my shift is over. Plus weird credit card charges and blaming it on the system. Oh man don't ever stay there.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r244596913-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>244596913</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Clean room and hotel!</t>
+  </si>
+  <si>
+    <t>I stayed her for business trip. The room was clean and the hotel itself looked nice! I has a studio room  which had a full-size refrigerator, stove and sink. I did not need this as I did not use. I found a great deal for the room and thought I would try something different than the low-cost rooms (without any amenities) I usually stay. I was there for (3) days. Front desk staff was VERY nice!. I checked in late (1am) and out early (3am). Only one issue was a dripping noise that came from the outside. Might have been water dripping in the downspout was NOT a problem as I was able to sleep with no problem. Overall a great stay, no major complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Zhan  J, General Manager at Candlewood Suites League City, responded to this reviewResponded December 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2014</t>
+  </si>
+  <si>
+    <t>I stayed her for business trip. The room was clean and the hotel itself looked nice! I has a studio room  which had a full-size refrigerator, stove and sink. I did not need this as I did not use. I found a great deal for the room and thought I would try something different than the low-cost rooms (without any amenities) I usually stay. I was there for (3) days. Front desk staff was VERY nice!. I checked in late (1am) and out early (3am). Only one issue was a dripping noise that came from the outside. Might have been water dripping in the downspout was NOT a problem as I was able to sleep with no problem. Overall a great stay, no major complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r237741541-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>237741541</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>I have to commend the gentleman that I talked to before staying here about my issue, I feel confident that If I hadnt booked through a third party, my issues would have easily been resolved. On another note, I was hesitant on staying here because of the mixed reviews, but my boyfriend and I had no complaints at all. It was very nice and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Zhan  J, General Manager at Candlewood Suites League City, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>I have to commend the gentleman that I talked to before staying here about my issue, I feel confident that If I hadnt booked through a third party, my issues would have easily been resolved. On another note, I was hesitant on staying here because of the mixed reviews, but my boyfriend and I had no complaints at all. It was very nice and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r234311425-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>234311425</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Small but Nice!</t>
+  </si>
+  <si>
+    <t>Have to say of all the hotels I've stayed in, this ones architectural design has a flaw.  The area where the bed furniture is supposed to be is small and not designed to fit a king bed.  I had a recliner chair literally next to the bed and had to step sideways to get in and out of bed, same with the other side next to the wall.  The rest of the room and bathroom were nice.They do not come and freshen up the room daily so if you need clean towels or other items you have to get them from the from desk, which works for me. The hotel staff Karla at the front desk &amp; Zhan Jacks the manager were really really nice and went out of their way to make your stay very enjoyable, Thanks you two for all you do everyday for your guests. AWESOME...AWESOME JOB!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Have to say of all the hotels I've stayed in, this ones architectural design has a flaw.  The area where the bed furniture is supposed to be is small and not designed to fit a king bed.  I had a recliner chair literally next to the bed and had to step sideways to get in and out of bed, same with the other side next to the wall.  The rest of the room and bathroom were nice.They do not come and freshen up the room daily so if you need clean towels or other items you have to get them from the from desk, which works for me. The hotel staff Karla at the front desk &amp; Zhan Jacks the manager were really really nice and went out of their way to make your stay very enjoyable, Thanks you two for all you do everyday for your guests. AWESOME...AWESOME JOB!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r225452031-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>225452031</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Okay stay, nice staff</t>
+  </si>
+  <si>
+    <t>I think I could have liked this place a little more if it didnt have that college dorm feel to it. All the different cooking smells coming from the rooms was overwhelming. There were kids everywhere you went and it was a little loud. The lady at the front desk was nice and helpful though. The room itself was okay but the toilet got plugged up after two uses.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Zhan J, General Manager at Candlewood Suites League City, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>I think I could have liked this place a little more if it didnt have that college dorm feel to it. All the different cooking smells coming from the rooms was overwhelming. There were kids everywhere you went and it was a little loud. The lady at the front desk was nice and helpful though. The room itself was okay but the toilet got plugged up after two uses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r223725342-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>223725342</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Unprofessional!!!</t>
+  </si>
+  <si>
+    <t>I would like to start by saying upon my arrival there the front desk staff were very unprofessional you could hear them laughing and talking as I walked through the door, I was checked in and greeted by whom I may assume is the sales manager Nekol, she should be referred to as the Candlewood Drill Sergeant, because instead of explaining the amenities of the hotel she's barking rules at you about what you can and can't do and what you'll be charged for etc etc, I'm not going to even mention the fact that her and the other 2 ladies whom weren't in uniform but more dressed like strippers, smelled of alcohol, I'm not sure who is actually in charge at this establishment but they need to get better control of there staff for it seems as if there running an all night club/bar....the rooms were some what clean they were filled with dust and every time the A/C came on you could see the dust particles flying in the air and it had a musty smell to it, majority of my dishes weren't clean, thank God for the local restaurants near the hotel. After coming back from a late movie with the family we get off the elevator on to our floor to see one of the girls from the front desk coming out of one of the rooms fixing her clothes in what looked to be a...I would like to start by saying upon my arrival there the front desk staff were very unprofessional you could hear them laughing and talking as I walked through the door, I was checked in and greeted by whom I may assume is the sales manager Nekol, she should be referred to as the Candlewood Drill Sergeant, because instead of explaining the amenities of the hotel she's barking rules at you about what you can and can't do and what you'll be charged for etc etc, I'm not going to even mention the fact that her and the other 2 ladies whom weren't in uniform but more dressed like strippers, smelled of alcohol, I'm not sure who is actually in charge at this establishment but they need to get better control of there staff for it seems as if there running an all night club/bar....the rooms were some what clean they were filled with dust and every time the A/C came on you could see the dust particles flying in the air and it had a musty smell to it, majority of my dishes weren't clean, thank God for the local restaurants near the hotel. After coming back from a late movie with the family we get off the elevator on to our floor to see one of the girls from the front desk coming out of one of the rooms fixing her clothes in what looked to be a long good-night kiss. I will not be referring this hotel to anyone I know or I will not be returning to this house of tragedyMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Zhan J, General Manager at Candlewood Suites League City, responded to this reviewResponded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2014</t>
+  </si>
+  <si>
+    <t>I would like to start by saying upon my arrival there the front desk staff were very unprofessional you could hear them laughing and talking as I walked through the door, I was checked in and greeted by whom I may assume is the sales manager Nekol, she should be referred to as the Candlewood Drill Sergeant, because instead of explaining the amenities of the hotel she's barking rules at you about what you can and can't do and what you'll be charged for etc etc, I'm not going to even mention the fact that her and the other 2 ladies whom weren't in uniform but more dressed like strippers, smelled of alcohol, I'm not sure who is actually in charge at this establishment but they need to get better control of there staff for it seems as if there running an all night club/bar....the rooms were some what clean they were filled with dust and every time the A/C came on you could see the dust particles flying in the air and it had a musty smell to it, majority of my dishes weren't clean, thank God for the local restaurants near the hotel. After coming back from a late movie with the family we get off the elevator on to our floor to see one of the girls from the front desk coming out of one of the rooms fixing her clothes in what looked to be a...I would like to start by saying upon my arrival there the front desk staff were very unprofessional you could hear them laughing and talking as I walked through the door, I was checked in and greeted by whom I may assume is the sales manager Nekol, she should be referred to as the Candlewood Drill Sergeant, because instead of explaining the amenities of the hotel she's barking rules at you about what you can and can't do and what you'll be charged for etc etc, I'm not going to even mention the fact that her and the other 2 ladies whom weren't in uniform but more dressed like strippers, smelled of alcohol, I'm not sure who is actually in charge at this establishment but they need to get better control of there staff for it seems as if there running an all night club/bar....the rooms were some what clean they were filled with dust and every time the A/C came on you could see the dust particles flying in the air and it had a musty smell to it, majority of my dishes weren't clean, thank God for the local restaurants near the hotel. After coming back from a late movie with the family we get off the elevator on to our floor to see one of the girls from the front desk coming out of one of the rooms fixing her clothes in what looked to be a long good-night kiss. I will not be referring this hotel to anyone I know or I will not be returning to this house of tragedyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r222650520-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>222650520</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Sales Manager Very Rude!</t>
+  </si>
+  <si>
+    <t>After driving 5 hours from our home to enjoy our last summer vacation, we got a call the morning of the date we were to check in, unfortunately we did not receive the call, so we were left a voice mail saying my cc on file was invalid and instead of waiting til check in or at least til I checked my voice mail to call back,  the sales manager took the liberty of cancelling our reservations! Check in time for most hotels is 3 or 4 o'clock, the voice mail was left at 9 a.m. that morning, I called her back as soon as I got the message which was still before check in. She was very rude, uncooperative and unsympathetic to the fact me and my family had driven 5 hours to enjoy our weekend and now had no where to stay! All she could say was book again, after I tried, with no help from her at all, the rate I was trying to book was blocked out! All she could suggest was for me to book another hotel and proceeded to tell me how she had a line of guest in front of her, so I guess me and my situation wasn't important enough for her to deal with anymore. I felt as if me and my family were dismissed like a piece of garbage, I traveled on a budget with the rate I booked in...After driving 5 hours from our home to enjoy our last summer vacation, we got a call the morning of the date we were to check in, unfortunately we did not receive the call, so we were left a voice mail saying my cc on file was invalid and instead of waiting til check in or at least til I checked my voice mail to call back,  the sales manager took the liberty of cancelling our reservations! Check in time for most hotels is 3 or 4 o'clock, the voice mail was left at 9 a.m. that morning, I called her back as soon as I got the message which was still before check in. She was very rude, uncooperative and unsympathetic to the fact me and my family had driven 5 hours to enjoy our weekend and now had no where to stay! All she could say was book again, after I tried, with no help from her at all, the rate I was trying to book was blocked out! All she could suggest was for me to book another hotel and proceeded to tell me how she had a line of guest in front of her, so I guess me and my situation wasn't important enough for her to deal with anymore. I felt as if me and my family were dismissed like a piece of garbage, I traveled on a budget with the rate I booked in that budget. Our reason for traveling was to visit Galveston, as you well know the rates there are very high, so we chose to stay a little further to pay a much lower rate and make the 30 min drive to the beach, so for her to suggest for me to just book another hotel as if she knew what my pocketbook looked like was unacceptable. If you are a traveler you well know booking in or even close to a popular location is not so easy or cheap when your booking the day of, I had these reservations booked for months and for her to just cancel our reservations over something that could have been so easily fixed was very unprofessional! I will never suggest anyone go to this hotel and I don't plan to book there ever again, if the experience was bad before we got there I can just imagine what we would have had to deal had we stayed there!!MoreShow less</t>
+  </si>
+  <si>
+    <t>After driving 5 hours from our home to enjoy our last summer vacation, we got a call the morning of the date we were to check in, unfortunately we did not receive the call, so we were left a voice mail saying my cc on file was invalid and instead of waiting til check in or at least til I checked my voice mail to call back,  the sales manager took the liberty of cancelling our reservations! Check in time for most hotels is 3 or 4 o'clock, the voice mail was left at 9 a.m. that morning, I called her back as soon as I got the message which was still before check in. She was very rude, uncooperative and unsympathetic to the fact me and my family had driven 5 hours to enjoy our weekend and now had no where to stay! All she could say was book again, after I tried, with no help from her at all, the rate I was trying to book was blocked out! All she could suggest was for me to book another hotel and proceeded to tell me how she had a line of guest in front of her, so I guess me and my situation wasn't important enough for her to deal with anymore. I felt as if me and my family were dismissed like a piece of garbage, I traveled on a budget with the rate I booked in...After driving 5 hours from our home to enjoy our last summer vacation, we got a call the morning of the date we were to check in, unfortunately we did not receive the call, so we were left a voice mail saying my cc on file was invalid and instead of waiting til check in or at least til I checked my voice mail to call back,  the sales manager took the liberty of cancelling our reservations! Check in time for most hotels is 3 or 4 o'clock, the voice mail was left at 9 a.m. that morning, I called her back as soon as I got the message which was still before check in. She was very rude, uncooperative and unsympathetic to the fact me and my family had driven 5 hours to enjoy our weekend and now had no where to stay! All she could say was book again, after I tried, with no help from her at all, the rate I was trying to book was blocked out! All she could suggest was for me to book another hotel and proceeded to tell me how she had a line of guest in front of her, so I guess me and my situation wasn't important enough for her to deal with anymore. I felt as if me and my family were dismissed like a piece of garbage, I traveled on a budget with the rate I booked in that budget. Our reason for traveling was to visit Galveston, as you well know the rates there are very high, so we chose to stay a little further to pay a much lower rate and make the 30 min drive to the beach, so for her to suggest for me to just book another hotel as if she knew what my pocketbook looked like was unacceptable. If you are a traveler you well know booking in or even close to a popular location is not so easy or cheap when your booking the day of, I had these reservations booked for months and for her to just cancel our reservations over something that could have been so easily fixed was very unprofessional! I will never suggest anyone go to this hotel and I don't plan to book there ever again, if the experience was bad before we got there I can just imagine what we would have had to deal had we stayed there!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r218260597-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>218260597</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Poor Service</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in this hotel for one night. My mother reserved the room for us and when I checked in I handed the clerk the reservation that my mother had printed out for us. The clerk then proceeded to check us in. The clerk wanted a credit card to hold on file for incidentals so I asked the clerk to use my mothers card and she said she could not use her card because that was the card used to hold the reservation so I then handed her my credit card and they immediately took $20 out of my account. I then called my mother and she called the hotel and spoke to the clerk. Everything was fine. My mother faxed them a copy of her debit card and the clerk put it on file and said that we would be receiving a refund for the $20. My husband and I used the elevator to go to our room and once we entered the elevator we both noticed a horrific smell we then called the front desk and told them about the unpleasant smell in the elevator. Later that night the smell in the elevator never went away. Our room was very nice complete with a kitchen. Once we go and checkout the clerk did not know how to check in or check out people so we just left. We never did receive our refund for the...My husband and I stayed in this hotel for one night. My mother reserved the room for us and when I checked in I handed the clerk the reservation that my mother had printed out for us. The clerk then proceeded to check us in. The clerk wanted a credit card to hold on file for incidentals so I asked the clerk to use my mothers card and she said she could not use her card because that was the card used to hold the reservation so I then handed her my credit card and they immediately took $20 out of my account. I then called my mother and she called the hotel and spoke to the clerk. Everything was fine. My mother faxed them a copy of her debit card and the clerk put it on file and said that we would be receiving a refund for the $20. My husband and I used the elevator to go to our room and once we entered the elevator we both noticed a horrific smell we then called the front desk and told them about the unpleasant smell in the elevator. Later that night the smell in the elevator never went away. Our room was very nice complete with a kitchen. Once we go and checkout the clerk did not know how to check in or check out people so we just left. We never did receive our refund for the $20 the clerk took from us at check in. My husband took it upon himself to email the general manager of the hotel and he forwarded the email to the sales manager who was completely aware of the situation and told us the steps to receiving our refund. All of the clerks that we came into contact with were very rude. Because the clerk at check out did not know what he was doing we ended being late to our meeting we had.MoreShow less</t>
+  </si>
+  <si>
+    <t>Zhan J, General Manager at Candlewood Suites League City, responded to this reviewResponded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in this hotel for one night. My mother reserved the room for us and when I checked in I handed the clerk the reservation that my mother had printed out for us. The clerk then proceeded to check us in. The clerk wanted a credit card to hold on file for incidentals so I asked the clerk to use my mothers card and she said she could not use her card because that was the card used to hold the reservation so I then handed her my credit card and they immediately took $20 out of my account. I then called my mother and she called the hotel and spoke to the clerk. Everything was fine. My mother faxed them a copy of her debit card and the clerk put it on file and said that we would be receiving a refund for the $20. My husband and I used the elevator to go to our room and once we entered the elevator we both noticed a horrific smell we then called the front desk and told them about the unpleasant smell in the elevator. Later that night the smell in the elevator never went away. Our room was very nice complete with a kitchen. Once we go and checkout the clerk did not know how to check in or check out people so we just left. We never did receive our refund for the...My husband and I stayed in this hotel for one night. My mother reserved the room for us and when I checked in I handed the clerk the reservation that my mother had printed out for us. The clerk then proceeded to check us in. The clerk wanted a credit card to hold on file for incidentals so I asked the clerk to use my mothers card and she said she could not use her card because that was the card used to hold the reservation so I then handed her my credit card and they immediately took $20 out of my account. I then called my mother and she called the hotel and spoke to the clerk. Everything was fine. My mother faxed them a copy of her debit card and the clerk put it on file and said that we would be receiving a refund for the $20. My husband and I used the elevator to go to our room and once we entered the elevator we both noticed a horrific smell we then called the front desk and told them about the unpleasant smell in the elevator. Later that night the smell in the elevator never went away. Our room was very nice complete with a kitchen. Once we go and checkout the clerk did not know how to check in or check out people so we just left. We never did receive our refund for the $20 the clerk took from us at check in. My husband took it upon himself to email the general manager of the hotel and he forwarded the email to the sales manager who was completely aware of the situation and told us the steps to receiving our refund. All of the clerks that we came into contact with were very rude. Because the clerk at check out did not know what he was doing we ended being late to our meeting we had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r214214423-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>214214423</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>I have stayed at this location every week, for the pass four weeks and the staff was wonderful!!! From the General Manager, to the Front Desk. This staff went over and beyond to make my stay as comfortable as possible. I would definitely recommend this property!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Candlewood Suites League City, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this location every week, for the pass four weeks and the staff was wonderful!!! From the General Manager, to the Front Desk. This staff went over and beyond to make my stay as comfortable as possible. I would definitely recommend this property!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r210195137-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>210195137</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Great hotel for a few days stay.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a few days after selling our house.  The Hotel has spacious rooms and the property is new and close to a lot of restaurants etc.  The rooms have everything you need, good size bathrooms and all the items you need to cook a meal.  What really makes this hotel great is the excellent service by the employees.  The employees went beyond what was expected of them and helped us on several occasions, making our stay great.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Candlewood Suites League City, responded to this reviewResponded June 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a few days after selling our house.  The Hotel has spacious rooms and the property is new and close to a lot of restaurants etc.  The rooms have everything you need, good size bathrooms and all the items you need to cook a meal.  What really makes this hotel great is the excellent service by the employees.  The employees went beyond what was expected of them and helped us on several occasions, making our stay great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r198602203-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>198602203</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>Absolutely terrible customer service. Poorly greeted at the front desk upon arrival. Made it to the room and found that an error had been made when booking and my husband and I had a queen bed instead of the King. Went to the front desk clerk who told me that there were no Kings available in the hotel. I did a quick search online and found that there were actually several empty rooms, when I asked her about this, she said that because I had booked our room thru a 3rd party there was nothing the hotel could do to help me. Still curious why she didn't tell us this first instead of giving us the standard response that there were no rooms available when in fact there were. I then asked if we could pay the difference in the rooms to have the King and she said no we could just book another room, but other then that she could not help me. I accepted defeat and went back to the room. The bed had 3 rather thin pillows on it, then went again to the front desk to request 1 additional pillow, front desk clerk told me there were no pillows available. To add salt to the wound, the AC did not properly work in the room, constantly maintaining a temp of 78. We will never stay in a Candlewood Suites again, really terrible service. DO NOT care...Absolutely terrible customer service. Poorly greeted at the front desk upon arrival. Made it to the room and found that an error had been made when booking and my husband and I had a queen bed instead of the King. Went to the front desk clerk who told me that there were no Kings available in the hotel. I did a quick search online and found that there were actually several empty rooms, when I asked her about this, she said that because I had booked our room thru a 3rd party there was nothing the hotel could do to help me. Still curious why she didn't tell us this first instead of giving us the standard response that there were no rooms available when in fact there were. I then asked if we could pay the difference in the rooms to have the King and she said no we could just book another room, but other then that she could not help me. I accepted defeat and went back to the room. The bed had 3 rather thin pillows on it, then went again to the front desk to request 1 additional pillow, front desk clerk told me there were no pillows available. To add salt to the wound, the AC did not properly work in the room, constantly maintaining a temp of 78. We will never stay in a Candlewood Suites again, really terrible service. DO NOT care about their guests at all. Save yourself a headache and book the Hampton next door. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Ruth V, Manager at Candlewood Suites League City, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Absolutely terrible customer service. Poorly greeted at the front desk upon arrival. Made it to the room and found that an error had been made when booking and my husband and I had a queen bed instead of the King. Went to the front desk clerk who told me that there were no Kings available in the hotel. I did a quick search online and found that there were actually several empty rooms, when I asked her about this, she said that because I had booked our room thru a 3rd party there was nothing the hotel could do to help me. Still curious why she didn't tell us this first instead of giving us the standard response that there were no rooms available when in fact there were. I then asked if we could pay the difference in the rooms to have the King and she said no we could just book another room, but other then that she could not help me. I accepted defeat and went back to the room. The bed had 3 rather thin pillows on it, then went again to the front desk to request 1 additional pillow, front desk clerk told me there were no pillows available. To add salt to the wound, the AC did not properly work in the room, constantly maintaining a temp of 78. We will never stay in a Candlewood Suites again, really terrible service. DO NOT care...Absolutely terrible customer service. Poorly greeted at the front desk upon arrival. Made it to the room and found that an error had been made when booking and my husband and I had a queen bed instead of the King. Went to the front desk clerk who told me that there were no Kings available in the hotel. I did a quick search online and found that there were actually several empty rooms, when I asked her about this, she said that because I had booked our room thru a 3rd party there was nothing the hotel could do to help me. Still curious why she didn't tell us this first instead of giving us the standard response that there were no rooms available when in fact there were. I then asked if we could pay the difference in the rooms to have the King and she said no we could just book another room, but other then that she could not help me. I accepted defeat and went back to the room. The bed had 3 rather thin pillows on it, then went again to the front desk to request 1 additional pillow, front desk clerk told me there were no pillows available. To add salt to the wound, the AC did not properly work in the room, constantly maintaining a temp of 78. We will never stay in a Candlewood Suites again, really terrible service. DO NOT care about their guests at all. Save yourself a headache and book the Hampton next door. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r198374730-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>198374730</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Stay here before your Galveston cruise instead of in town.</t>
+  </si>
+  <si>
+    <t>I'd never stayed at a Candlewood before but will definitely give the chain another look next time we  need kitchen facilities.  I really don't care about daily maid service (seriously, how dirty can your towels get after one days use?) the room was quiet and the laundry facilities did not require me to carry pockets full of quarters.The front desk staff were helpful - I needed an ethernet cord, and a corkscrew - both requests were filled quickly and with a smile.We were leaving for a cruise from Galveston the next day and found prices in League City to be ALOT lower than in Galveston itself.  Lots of shopping available close by as wellMoreShow less</t>
+  </si>
+  <si>
+    <t>I'd never stayed at a Candlewood before but will definitely give the chain another look next time we  need kitchen facilities.  I really don't care about daily maid service (seriously, how dirty can your towels get after one days use?) the room was quiet and the laundry facilities did not require me to carry pockets full of quarters.The front desk staff were helpful - I needed an ethernet cord, and a corkscrew - both requests were filled quickly and with a smile.We were leaving for a cruise from Galveston the next day and found prices in League City to be ALOT lower than in Galveston itself.  Lots of shopping available close by as wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r198296882-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>198296882</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Good hotel, a couple concerns</t>
+  </si>
+  <si>
+    <t>Stayed here over spring break. The hotel was full but we were never bothered by noise. We stayed in a 1 bedroom suite which was enough space for our family of 4. Room includes a kitchen with refrigerator, microwave, dishwasher, and basic utensils. Note this is an extended stay hotel so it does not come with daily room cleaning, although you can request it. Also there is no breakfast, but with the kitchen you can keep your own food to save money on meals. Both tv's also had a dvd player, although the remotes never worked with the dvd. We had to request linens for the pull-out couch and extra towels, and these were provided although service was a little slow. Wifi internet is available, but it is a spotty connection. If needing internet, I'd recommend bringing an ethernet cable (wired is also available). Pool and workout room appeared maintained and in good condition. Front desk staff were friendly. Hotel is located within 15 minutes of places like NASA, Kemah boardwalk, and about 20 minutes to galveston - the rate is much cheaper here than closer to the attractions and it was worth the extra savings. Also near many shops and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here over spring break. The hotel was full but we were never bothered by noise. We stayed in a 1 bedroom suite which was enough space for our family of 4. Room includes a kitchen with refrigerator, microwave, dishwasher, and basic utensils. Note this is an extended stay hotel so it does not come with daily room cleaning, although you can request it. Also there is no breakfast, but with the kitchen you can keep your own food to save money on meals. Both tv's also had a dvd player, although the remotes never worked with the dvd. We had to request linens for the pull-out couch and extra towels, and these were provided although service was a little slow. Wifi internet is available, but it is a spotty connection. If needing internet, I'd recommend bringing an ethernet cable (wired is also available). Pool and workout room appeared maintained and in good condition. Front desk staff were friendly. Hotel is located within 15 minutes of places like NASA, Kemah boardwalk, and about 20 minutes to galveston - the rate is much cheaper here than closer to the attractions and it was worth the extra savings. Also near many shops and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r181306710-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>181306710</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise because it was on special with IHG Rewards points.  The place looked like it had just been built!  It is behind a Tire and Auto Repair place.  We needed a room with 2 beds and that request was granted by Vanessa when we checked in.  Had to take alot of luggage to the room to organize our bags for the cruise.  Room was clean but I heard a beeping.  Went out for a while and when we returned - still heard beeping.  I didn't know if it was a smoke detector or the dishwasher.  Called front desk and Vanessa came up and listened.  She reset the dishwasher and that fixed the beeping!  I wasn't familiar with the type of dishwasher in the room.  Found a packet of microwave popcorn in the microwave - Vanessa told us that should be there.  So we watched TV &amp; ate popcorn.  The next morning there was coffee for the coffeemaker, bought some juice &amp; milk and brought Oatmeal with us so we could eat in the room.  The AC worked good, beds were comfy.  Ready to re-load our van and ELEVATOR OUT OF ORDER!  We had to carry all our luggage down the hall &amp; down the stairs!  Should have requested 1st floor room!  Redeemed coupons for our free sodas.  Check out was quick - No Charge!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise because it was on special with IHG Rewards points.  The place looked like it had just been built!  It is behind a Tire and Auto Repair place.  We needed a room with 2 beds and that request was granted by Vanessa when we checked in.  Had to take alot of luggage to the room to organize our bags for the cruise.  Room was clean but I heard a beeping.  Went out for a while and when we returned - still heard beeping.  I didn't know if it was a smoke detector or the dishwasher.  Called front desk and Vanessa came up and listened.  She reset the dishwasher and that fixed the beeping!  I wasn't familiar with the type of dishwasher in the room.  Found a packet of microwave popcorn in the microwave - Vanessa told us that should be there.  So we watched TV &amp; ate popcorn.  The next morning there was coffee for the coffeemaker, bought some juice &amp; milk and brought Oatmeal with us so we could eat in the room.  The AC worked good, beds were comfy.  Ready to re-load our van and ELEVATOR OUT OF ORDER!  We had to carry all our luggage down the hall &amp; down the stairs!  Should have requested 1st floor room!  Redeemed coupons for our free sodas.  Check out was quick - No Charge!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r169803707-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>169803707</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>I'll be back!</t>
+  </si>
+  <si>
+    <t>The bed is completely heavenly! I slept like a rock on the wonderful bed, and then I saw a sticker on the fridge that explains how you can buy their custom made beds on their website. I am SO INTERESTED! The hotel is pretty far from the beach, and the room is fairly small, but it has everything you need! It's clean, comfortable, and way cheaper than anything on Seawall. There was a problem with our reservation when we were checking in (at 3:30 AM), but it got resolved with a call to customer care and speaking to the GM. I acted like a JERK, though, and I want to apologize to Porchea! I hope you forgive me! There was no reason for me to act like that. I love the hotel, and I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>The bed is completely heavenly! I slept like a rock on the wonderful bed, and then I saw a sticker on the fridge that explains how you can buy their custom made beds on their website. I am SO INTERESTED! The hotel is pretty far from the beach, and the room is fairly small, but it has everything you need! It's clean, comfortable, and way cheaper than anything on Seawall. There was a problem with our reservation when we were checking in (at 3:30 AM), but it got resolved with a call to customer care and speaking to the GM. I acted like a JERK, though, and I want to apologize to Porchea! I hope you forgive me! There was no reason for me to act like that. I love the hotel, and I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r169607062-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>169607062</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>This hotel is horrible!!  Seems they are so hard up for money I don't know why they even opened.  We used our debit card and they not only authorized the WHOLE room amount but charged our card again for each night we were there.  And now we have to wait 7 days for the hold to release. However, this was never mentioned while we were checking in. I was later shown a little sign that said if I used my debit card a hold would be placed for 5-7 business days. That sign didn't tell me crap. So basically for a week we are being charged double.  The beds were very uncomfortable and for what we paid a night, I would think they could afford a upgraded mattress without springs poking you in the back. And they are so hard up for money, they can't even offer a continental breakfast. This place was the worst place I have ever stayed and the staff didn't care. I WON'T be staying here ever again, and I dang sure won't recommend this place to anyone I know.  They don't even offer ice machines, you have to check in, turn on your icemaker in the fridge in your room and WAIT for it to produce.  This place is a joke.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is horrible!!  Seems they are so hard up for money I don't know why they even opened.  We used our debit card and they not only authorized the WHOLE room amount but charged our card again for each night we were there.  And now we have to wait 7 days for the hold to release. However, this was never mentioned while we were checking in. I was later shown a little sign that said if I used my debit card a hold would be placed for 5-7 business days. That sign didn't tell me crap. So basically for a week we are being charged double.  The beds were very uncomfortable and for what we paid a night, I would think they could afford a upgraded mattress without springs poking you in the back. And they are so hard up for money, they can't even offer a continental breakfast. This place was the worst place I have ever stayed and the staff didn't care. I WON'T be staying here ever again, and I dang sure won't recommend this place to anyone I know.  They don't even offer ice machines, you have to check in, turn on your icemaker in the fridge in your room and WAIT for it to produce.  This place is a joke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r166808601-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>166808601</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Baseball Tournament - HORRIBLE EXPERIENCE</t>
+  </si>
+  <si>
+    <t>We went down for a tournament and booked a total of 10 rooms only to get down there and just because you have a reservation, doesn't mean you have a reservation.  They were overbooked and couldn't get us in a room.  As I stood there for 3 hours trying to make sure our teammates were in a room, miraculously rooms were popping up and available.  Manager took 15 smoke breaks as we were waiting on an answer.  Sheets were dirty...took 2 days to get a new set so we had to not use that bad.  OVERALL HORRIBLE EXPERIENCE.  I would never stay here again!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>We went down for a tournament and booked a total of 10 rooms only to get down there and just because you have a reservation, doesn't mean you have a reservation.  They were overbooked and couldn't get us in a room.  As I stood there for 3 hours trying to make sure our teammates were in a room, miraculously rooms were popping up and available.  Manager took 15 smoke breaks as we were waiting on an answer.  Sheets were dirty...took 2 days to get a new set so we had to not use that bad.  OVERALL HORRIBLE EXPERIENCE.  I would never stay here again!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r164252096-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>164252096</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>I have stayed here before and had a good experience so decided to stay here for a night before a cruise. I was a little surprised by the charge they put on my credit card (do not remember this when staying in the one at Texas City), when I already paid for the room. But other than that the rooms were nice and spacious as always. Although it was far from Galveston, I loved how close it was to shopping and restaurants!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r162126958-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>162126958</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Everything was in order at the candlewood suites. Management and staff were very professional and helpful. Room was clean. Property was well maintained. Pool area was clean, loved the patio area near the pool. It had a nice grill. Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r156624760-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>156624760</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Poorly managed and Overcharged</t>
+  </si>
+  <si>
+    <t>We usually love Candlewood but this property is an exception.  Waited 10 minutes to check-in as there was no staff at the desk.  Room was filthy...most of the dishes and silverware were VERY dirty - soda drips down glasses and dried food on utensils. Hair in tub and refrigerator and a ring in the toilet.  The front desk clerk did not return my call about this, so I went to the desk and was informed she could not do anything about it since they were full.  There was still a housekeeper cleaning, so I'm not sure why it couldn't be resolved.  They charged my card an extra $80 and am still waiting on a call back from the manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded April 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2013</t>
+  </si>
+  <si>
+    <t>We usually love Candlewood but this property is an exception.  Waited 10 minutes to check-in as there was no staff at the desk.  Room was filthy...most of the dishes and silverware were VERY dirty - soda drips down glasses and dried food on utensils. Hair in tub and refrigerator and a ring in the toilet.  The front desk clerk did not return my call about this, so I went to the desk and was informed she could not do anything about it since they were full.  There was still a housekeeper cleaning, so I'm not sure why it couldn't be resolved.  They charged my card an extra $80 and am still waiting on a call back from the manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r154391770-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>154391770</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Beds were comfy. Room was clean. Used the heck out of the pots and pans. Could use some cocoa. The staff was friendly. No issues at all. The smoking area outside is covered and it did rain so that's a bonus.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r146235114-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>146235114</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Terrible Hotel</t>
+  </si>
+  <si>
+    <t>Don't stay at this hotel because the elevator breaks down and your on stuck on the 3rd floor. The grill onsite for BBQ,ing was so nasty that Chris or Myself would not use it and we both love to grill. Housekeeping would away short the room on towels and other items and the room was short all kinds of items upon check in and the staff said just tell us what you're short on like I know what they keep in the room being it was the first time I had ever stayed there.Some of the staff was friendly but was very helpful.The phone in my room would ring about every 30 minutes so I had to keep it unplugged and the hotel was unable to fix the problem. The laundry room was alway dirty and the machines also seemed to be broken and made it hard to wash clothes. The coffee maker in the on premise store was alway having problems and didn't work for over a week because they did't order coffee. If this wasn't bad enough, now the hotel will not give me my Priority club rewards points and I stayed the for 8 weeks. This was after Brenda and the original manager telling me to make sure to give them my rewards number so I would receive my points. Please don't stay at this hotel unless you want to have a crappie stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>hiexp, General Manager at Candlewood Suites League City, responded to this reviewResponded November 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2012</t>
+  </si>
+  <si>
+    <t>Don't stay at this hotel because the elevator breaks down and your on stuck on the 3rd floor. The grill onsite for BBQ,ing was so nasty that Chris or Myself would not use it and we both love to grill. Housekeeping would away short the room on towels and other items and the room was short all kinds of items upon check in and the staff said just tell us what you're short on like I know what they keep in the room being it was the first time I had ever stayed there.Some of the staff was friendly but was very helpful.The phone in my room would ring about every 30 minutes so I had to keep it unplugged and the hotel was unable to fix the problem. The laundry room was alway dirty and the machines also seemed to be broken and made it hard to wash clothes. The coffee maker in the on premise store was alway having problems and didn't work for over a week because they did't order coffee. If this wasn't bad enough, now the hotel will not give me my Priority club rewards points and I stayed the for 8 weeks. This was after Brenda and the original manager telling me to make sure to give them my rewards number so I would receive my points. Please don't stay at this hotel unless you want to have a crappie stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r121504602-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>121504602</t>
+  </si>
+  <si>
+    <t>12/07/2011</t>
+  </si>
+  <si>
+    <t>Pretty inpressed</t>
+  </si>
+  <si>
+    <t>made my reservation through priceline got the price I wanted got to the hotel appearance from both the inside and out was refreshing and clean. room has upscale appeal to it, quite clean and most importantly QUIET.  restaurants and stores are  conviently located close by. Cant really say anything negative YET.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r116132292-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>116132292</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>It Stunk - bad manager</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel a year ago and everything was GREAT!!!  This year, OMG! First they screwed up our reservation. The young lady, that was working, was sweet to go ahead and give us a room for the first night. All hotels were packed. The room stunk so bad we could hardly stand it! Someone had splattered grease on the walls when they had cooked in the room. She came to the room, sprayed it and washed down the walls. It was bearable for the night (somewhat) but the next day, it was back. The manager was there the next day. She said we should had never been allowed to stay because the on-line request had not gone through. I called on-line reservation, they said all was fine. So we ask her to change our room because of the smell, she said they were too full and there was NO ONE there that night, unlike the night before!!!  She could have cared less. I would NOT recommend this place to anyone!!!  It stinks!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel a year ago and everything was GREAT!!!  This year, OMG! First they screwed up our reservation. The young lady, that was working, was sweet to go ahead and give us a room for the first night. All hotels were packed. The room stunk so bad we could hardly stand it! Someone had splattered grease on the walls when they had cooked in the room. She came to the room, sprayed it and washed down the walls. It was bearable for the night (somewhat) but the next day, it was back. The manager was there the next day. She said we should had never been allowed to stay because the on-line request had not gone through. I called on-line reservation, they said all was fine. So we ask her to change our room because of the smell, she said they were too full and there was NO ONE there that night, unlike the night before!!!  She could have cared less. I would NOT recommend this place to anyone!!!  It stinks!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r96171559-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>96171559</t>
+  </si>
+  <si>
+    <t>02/10/2011</t>
+  </si>
+  <si>
+    <t>Dont stay here.</t>
+  </si>
+  <si>
+    <t>I had a government training that I was attending and was scheduled to stay at this location.  On Feb. 2 the whole State of Texas was under severe winter weather and travel was deadly.  I called front desk/manager to cancel and advised why I was staying at location (government) and the weather conditions.  She was unconcerned and not real friendly and the County was charged the one night cancellation penalty.  I have been a travel agent for 16 years prior to working for Emergency Management and I will never book Candlewood Suites nor recommend them either.  The Texas Division of Emergency Management is informed of my situation as well and hope they also do not recommend or refer Candlewood Suites as hotel recommendation.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I had a government training that I was attending and was scheduled to stay at this location.  On Feb. 2 the whole State of Texas was under severe winter weather and travel was deadly.  I called front desk/manager to cancel and advised why I was staying at location (government) and the weather conditions.  She was unconcerned and not real friendly and the County was charged the one night cancellation penalty.  I have been a travel agent for 16 years prior to working for Emergency Management and I will never book Candlewood Suites nor recommend them either.  The Texas Division of Emergency Management is informed of my situation as well and hope they also do not recommend or refer Candlewood Suites as hotel recommendation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r70625955-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>70625955</t>
+  </si>
+  <si>
+    <t>07/12/2010</t>
+  </si>
+  <si>
+    <t>Screwed up reservation</t>
+  </si>
+  <si>
+    <t>I reserved a suite using their online reservation system 3 weeks prior to our trip. When we arrived at the hotel, they tried to put us in a efficiency room with 2 double beds.  I had booked a suite with a queen bed (they don't even have kings available) for 3 nights.  The clerk was confused by the computer system, as was another clerk (possibly manager?) who attempted to help.  Neither of them could figure it out, the second clerk mumbling under his breath something about overbooking.  We had wanted to stay at this facility because it was only a couple of miles from the people we were visiting. We also wanted the usage of a kitchen, so right before checking in, we went to the grocery store and stocked up on some items we could put in the fridge. Needless to say, we ended up having to throw out the perishable groceries as we had to drive around in an unfamiliar area for a couple of hours trying to find a hotel room in a torrential rain storm.  Beware making reservations online at this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I reserved a suite using their online reservation system 3 weeks prior to our trip. When we arrived at the hotel, they tried to put us in a efficiency room with 2 double beds.  I had booked a suite with a queen bed (they don't even have kings available) for 3 nights.  The clerk was confused by the computer system, as was another clerk (possibly manager?) who attempted to help.  Neither of them could figure it out, the second clerk mumbling under his breath something about overbooking.  We had wanted to stay at this facility because it was only a couple of miles from the people we were visiting. We also wanted the usage of a kitchen, so right before checking in, we went to the grocery store and stocked up on some items we could put in the fridge. Needless to say, we ended up having to throw out the perishable groceries as we had to drive around in an unfamiliar area for a couple of hours trying to find a hotel room in a torrential rain storm.  Beware making reservations online at this place.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1836,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1868,3912 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>178</v>
+      </c>
+      <c r="X21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>178</v>
+      </c>
+      <c r="X22" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>214</v>
+      </c>
+      <c r="X26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>214</v>
+      </c>
+      <c r="X28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>214</v>
+      </c>
+      <c r="X29" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s">
+        <v>138</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>214</v>
+      </c>
+      <c r="X30" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>214</v>
+      </c>
+      <c r="X31" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>252</v>
+      </c>
+      <c r="J32" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s">
+        <v>267</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>276</v>
+      </c>
+      <c r="J36" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" t="s">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s">
+        <v>279</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>280</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>286</v>
+      </c>
+      <c r="X37" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>290</v>
+      </c>
+      <c r="J38" t="s">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s">
+        <v>293</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>294</v>
+      </c>
+      <c r="O38" t="s">
+        <v>138</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>295</v>
+      </c>
+      <c r="X38" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" t="s">
+        <v>301</v>
+      </c>
+      <c r="L39" t="s">
+        <v>302</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>303</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>304</v>
+      </c>
+      <c r="X39" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>307</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>308</v>
+      </c>
+      <c r="J40" t="s">
+        <v>309</v>
+      </c>
+      <c r="K40" t="s">
+        <v>310</v>
+      </c>
+      <c r="L40" t="s">
+        <v>311</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>312</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>313</v>
+      </c>
+      <c r="X40" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>316</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>318</v>
+      </c>
+      <c r="K41" t="s">
+        <v>319</v>
+      </c>
+      <c r="L41" t="s">
+        <v>320</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>321</v>
+      </c>
+      <c r="O41" t="s">
+        <v>96</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>322</v>
+      </c>
+      <c r="X41" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>331</v>
+      </c>
+      <c r="X42" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" t="s">
+        <v>337</v>
+      </c>
+      <c r="L43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>331</v>
+      </c>
+      <c r="X43" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>321</v>
+      </c>
+      <c r="O44" t="s">
+        <v>138</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>345</v>
+      </c>
+      <c r="X44" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>349</v>
+      </c>
+      <c r="J45" t="s">
+        <v>350</v>
+      </c>
+      <c r="K45" t="s">
+        <v>351</v>
+      </c>
+      <c r="L45" t="s">
+        <v>352</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>321</v>
+      </c>
+      <c r="O45" t="s">
+        <v>138</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>353</v>
+      </c>
+      <c r="X45" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" t="s">
+        <v>138</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>362</v>
+      </c>
+      <c r="X46" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>366</v>
+      </c>
+      <c r="J47" t="s">
+        <v>367</v>
+      </c>
+      <c r="K47" t="s">
+        <v>368</v>
+      </c>
+      <c r="L47" t="s">
+        <v>369</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>370</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>371</v>
+      </c>
+      <c r="X47" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>378</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>370</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>353</v>
+      </c>
+      <c r="X48" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s">
+        <v>383</v>
+      </c>
+      <c r="L49" t="s">
+        <v>384</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>370</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>353</v>
+      </c>
+      <c r="X49" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>386</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>387</v>
+      </c>
+      <c r="J50" t="s">
+        <v>388</v>
+      </c>
+      <c r="K50" t="s">
+        <v>389</v>
+      </c>
+      <c r="L50" t="s">
+        <v>390</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>391</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>393</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>394</v>
+      </c>
+      <c r="J51" t="s">
+        <v>395</v>
+      </c>
+      <c r="K51" t="s">
+        <v>396</v>
+      </c>
+      <c r="L51" t="s">
+        <v>397</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>398</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>400</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>401</v>
+      </c>
+      <c r="J52" t="s">
+        <v>395</v>
+      </c>
+      <c r="K52" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s">
+        <v>403</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>398</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>404</v>
+      </c>
+      <c r="X52" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>407</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>408</v>
+      </c>
+      <c r="J53" t="s">
+        <v>409</v>
+      </c>
+      <c r="K53" t="s">
+        <v>410</v>
+      </c>
+      <c r="L53" t="s">
+        <v>411</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>398</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>412</v>
+      </c>
+      <c r="X53" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>415</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>416</v>
+      </c>
+      <c r="J54" t="s">
+        <v>417</v>
+      </c>
+      <c r="K54" t="s">
+        <v>418</v>
+      </c>
+      <c r="L54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>420</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>421</v>
+      </c>
+      <c r="J55" t="s">
+        <v>422</v>
+      </c>
+      <c r="K55" t="s">
+        <v>158</v>
+      </c>
+      <c r="L55" t="s">
+        <v>423</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>424</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>425</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>426</v>
+      </c>
+      <c r="J56" t="s">
+        <v>427</v>
+      </c>
+      <c r="K56" t="s">
+        <v>428</v>
+      </c>
+      <c r="L56" t="s">
+        <v>429</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>430</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>431</v>
+      </c>
+      <c r="X56" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>434</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>435</v>
+      </c>
+      <c r="J57" t="s">
+        <v>436</v>
+      </c>
+      <c r="K57" t="s">
+        <v>437</v>
+      </c>
+      <c r="L57" t="s">
+        <v>438</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>430</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>439</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>440</v>
+      </c>
+      <c r="J58" t="s">
+        <v>441</v>
+      </c>
+      <c r="K58" t="s">
+        <v>442</v>
+      </c>
+      <c r="L58" t="s">
+        <v>443</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>444</v>
+      </c>
+      <c r="O58" t="s">
+        <v>138</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>445</v>
+      </c>
+      <c r="X58" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>448</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>449</v>
+      </c>
+      <c r="J59" t="s">
+        <v>450</v>
+      </c>
+      <c r="K59" t="s">
+        <v>451</v>
+      </c>
+      <c r="L59" t="s">
+        <v>452</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" t="s">
+        <v>138</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>454</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>455</v>
+      </c>
+      <c r="J60" t="s">
+        <v>456</v>
+      </c>
+      <c r="K60" t="s">
+        <v>457</v>
+      </c>
+      <c r="L60" t="s">
+        <v>458</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>459</v>
+      </c>
+      <c r="O60" t="s">
+        <v>96</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>461</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>462</v>
+      </c>
+      <c r="J61" t="s">
+        <v>463</v>
+      </c>
+      <c r="K61" t="s">
+        <v>464</v>
+      </c>
+      <c r="L61" t="s">
+        <v>465</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>466</v>
+      </c>
+      <c r="O61" t="s">
+        <v>138</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" t="s">
+        <v>470</v>
+      </c>
+      <c r="K62" t="s">
+        <v>471</v>
+      </c>
+      <c r="L62" t="s">
+        <v>472</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>473</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_79.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_79.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="738">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r594678058-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56144</t>
+  </si>
+  <si>
+    <t>1549592</t>
+  </si>
+  <si>
+    <t>594678058</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel and great amenities for extended stay hotel. Super clean and most of staff was very friendly. Large bathroom and closet. Kitchen is great if staying for an extended time or on special dietary restrictions. Grocery and restaurants as well as shopping all very close. Dog friendly too!. Pool area and BBQ area is small but very clean and in excellent condition.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r582827392-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>582827392</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disgusted </t>
+  </si>
+  <si>
+    <t>My wife and I took full advantage of my mother in law being in town to watch the kids so we're could get away for a night. We checked in and had a friendly experience with the evening staff member (Bree), but it was downhill from there. There was a funky smell in the place, most  uncomfortable bed I've "slept" in at any hotel. The room was filthy, splatter on the ceiling, carpet was stained and soiled with ground in gum and whatever else that was. Furniture was in shambles, dust all over the place, broken microwave handle, hole around thermostat, and to top it all off I found a razor blade that I assume was used for drugs. Coffee from the front desk was expired, coffee that was brewed for guests was like flavored water. I couldn't wait to leave and checked out early. Brought it to the attention of management, but I feel like it fell on deaf ears. #never again. They ought to be ashamed of themselves charging that amount for that low of a quality experience. Should have stayed at a motel and had a better room. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>CandlewoodSuiteslct, Manager at Candlewood Suites League City, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I took full advantage of my mother in law being in town to watch the kids so we're could get away for a night. We checked in and had a friendly experience with the evening staff member (Bree), but it was downhill from there. There was a funky smell in the place, most  uncomfortable bed I've "slept" in at any hotel. The room was filthy, splatter on the ceiling, carpet was stained and soiled with ground in gum and whatever else that was. Furniture was in shambles, dust all over the place, broken microwave handle, hole around thermostat, and to top it all off I found a razor blade that I assume was used for drugs. Coffee from the front desk was expired, coffee that was brewed for guests was like flavored water. I couldn't wait to leave and checked out early. Brought it to the attention of management, but I feel like it fell on deaf ears. #never again. They ought to be ashamed of themselves charging that amount for that low of a quality experience. Should have stayed at a motel and had a better room. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r581053693-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
-    <t>56144</t>
-  </si>
-  <si>
-    <t>1549592</t>
-  </si>
-  <si>
     <t>581053693</t>
   </si>
   <si>
@@ -171,12 +222,6 @@
     <t xml:space="preserve">I've never been to a place where the staff is just so sweet and understanding!! Makes you feel at home... The gentlemen that worked the front desk on May 17 and also May 18 is the sweetest thing ever.. Thank you from the bottom of our hearts for welcoming us with open arms and treating us like family... I recommend this place to any family that wants nothing but happy thoughts and welcomed with open arms. God Bless You to the gentleman that helped my husband and myself! </t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r578702614-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -192,9 +237,6 @@
     <t>Candlewood Suites is a great hotel to stay at the staff is very friendly there rooms are nice and they have free wi-Fi and they also have a pool and workout room with washers and dryers. And the location is great there’s a bunch of great restaurants very close by.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r576553360-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -213,6 +255,39 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r575009976-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>575009976</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>NO REFUNDS WITH PREPAYMENT HERE</t>
+  </si>
+  <si>
+    <t>I needed to cancel my stay 10 days in advance due to a serious medical situation, they basically said they don't refund for any reason. So my daughter and spouse showed up for my reservation and they had no room for me. I will now never stay at any member of this chain ever. The place was also nasty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r573460015-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>573460015</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Pre Cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok for a night but I wouldn’t stay much longer.  It’s a decent hotel but needs updating and maintenance.  The desk chair in our room was scotch taped together and there was a hole behind the air conditioner thermostat.  On a positive note the hotel is in a good location near shopping and restaurants. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r546860308-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -231,9 +306,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r498659023-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -288,6 +360,48 @@
     <t>I stayed here with my daughter for one night.   The location is good with easy access to I-45 and the property is relatively new.   The staff provides good service and is friendly.   The rooms are generally clean but ours was showing signs of wear - the shower curtain and upholstery were warn and had tears.    More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r481262173-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>481262173</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Baseball Tournament Stay</t>
+  </si>
+  <si>
+    <t>Clean, reasonable price, kitchenette well set up, good location for BLD Tournament and close to shops and restaurants. Set up reservations for most of the team and all went well. Good family stay over.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Clean, reasonable price, kitchenette well set up, good location for BLD Tournament and close to shops and restaurants. Set up reservations for most of the team and all went well. Good family stay over.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r479537845-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>479537845</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>We lived here from Nov. 2016 through the first part of April 2017, and we hated being away from home, but we could not have chosen a better place to live.  The whole staff took wonderful care of us.  My roommate and I are not in good health, and they not only helped carry in groceries, they checked on us daily.  I had a couple of friends come down to go on a cruise, and spent the night in the hotel and expressed to us how well they were treated.  If necessary, we would go back to stay, and highly recommend any friends needing a place to stay, make it Candlewood Suites in League City, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We lived here from Nov. 2016 through the first part of April 2017, and we hated being away from home, but we could not have chosen a better place to live.  The whole staff took wonderful care of us.  My roommate and I are not in good health, and they not only helped carry in groceries, they checked on us daily.  I had a couple of friends come down to go on a cruise, and spent the night in the hotel and expressed to us how well they were treated.  If necessary, we would go back to stay, and highly recommend any friends needing a place to stay, make it Candlewood Suites in League City, TX.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r466637419-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -346,6 +460,39 @@
   </si>
   <si>
     <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r454489137-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>454489137</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Clean and cozy</t>
+  </si>
+  <si>
+    <t>Hotel is clean, they received me quickly and even lend dvds and books at no charge. The room was really clean, used a wall thermostat, had pots, pans, and all the table wear you need. Loved it!! Good price too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r453380797-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>453380797</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new staff is very efficient rooms are good if any problems staff takes care of it very quickly and I was very impressed with the hotel I would use this hotel again when coming into League City or Galveston area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r451489462-Candlewood_Suites_League_City-League_City_Texas.html</t>
@@ -416,6 +563,39 @@
 Good: I love the concept of the hotel room. It reminds me of a studio apartment. It has a regular size refrigerator, a big size microwave oven, dishwasher, kitchen sink, stove, TV, iron/board and a small table. The bed and pillows was so comfortable. I like the nice size restroom and the extra closet space for your clothes. They also have a cookware and utensils to use for cooking. I didn’t use it but they have an onsite workout room, free DVD’s (located at the front desk), and free washer and dryer to use. Due to the fact you are able to cook in your room, they don’t have complimentary breakfast at this location…sorry about guys. They had a lot of parking no matter what time you come in. The location is great!...Bad: The smell in my room was horrible! It smelled like old mild dew. I think they should open the window and let the rooms air itself out. I don’t know if they had a floor or roof damage because I was on the 3rd floor. I went to the nearby Dollar Tree to buy some air fresheners and it worked for a while.  I didn’t alert the front desk because I had too much stuff to move for my 3 days and 2 night stay. I ended up checking out at 9am instead of 11am on the last day just to get away from the smell.Good: I love the concept of the hotel room. It reminds me of a studio apartment. It has a regular size refrigerator, a big size microwave oven, dishwasher, kitchen sink, stove, TV, iron/board and a small table. The bed and pillows was so comfortable. I like the nice size restroom and the extra closet space for your clothes. They also have a cookware and utensils to use for cooking. I didn’t use it but they have an onsite workout room, free DVD’s (located at the front desk), and free washer and dryer to use. Due to the fact you are able to cook in your room, they don’t have complimentary breakfast at this location…sorry about guys. They had a lot of parking no matter what time you come in. The location is great! It’s close to the main Highway 45. There’s a lot of shopping centers, restaurant, mall nearby in the area. The lady at the front desk (forgot her name) was so pleasant and nice. They had freshly baked cookies in the lobby of the hotel daily….mmm mmm good!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r433205208-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>433205208</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent experience, great location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I booked at this hotel because of it's proximity to Galveston port, since we were leaving for a cruise the next morning. The property was conveniently located and only about a 20 minute drive from our parking lot for the cruise. Comfortable beds, though they were a little bit small. The room was quiet, and we had a good sleep. I would definitely book this hotel or one in this chain again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r422860924-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>422860924</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>Nice spacious rooms. Welcoming staff. Kitchenette had every possible thing from pans, spatulas, spoons, forks, plates etc. Pool and gym was another attraction we enjoyed a lot. Glad we stayed here! Will definately stay here in the future at different locations.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r421034740-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -431,12 +611,6 @@
     <t>I was ordered to stay here for a week on a business trip. I was not very optimistic because my employer picked this hotel for its affordable prices and did not offer a me a choice of hotels. Knowing my cheapskate employer, I expected the the worst &amp; since the price great I expected there would be a catch. However, I was pleasantly surprised and have been so impressed!! Friendly staff, AK at the front desk was especially helpful &amp; nice... Full sized refrigerator with ice maker, stove, microwave, dishwasher and granite counters. Dishes, pots and pans and silverware in cabinets. A recliner, nice bedding and HBO channels, free washers and dryers, &amp; very conveniently located. It takes 25 minutes to drive to the beaches in Galveston, which I do every night after work. Wish I  could just move in and live here, lol.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I was ordered to stay here for a week on a business trip. I was not very optimistic because my employer picked this hotel for its affordable prices and did not offer a me a choice of hotels. Knowing my cheapskate employer, I expected the the worst &amp; since the price great I expected there would be a catch. However, I was pleasantly surprised and have been so impressed!! Friendly staff, AK at the front desk was especially helpful &amp; nice... Full sized refrigerator with ice maker, stove, microwave, dishwasher and granite counters. Dishes, pots and pans and silverware in cabinets. A recliner, nice bedding and HBO channels, free washers and dryers, &amp; very conveniently located. It takes 25 minutes to drive to the beaches in Galveston, which I do every night after work. Wish I  could just move in and live here, lol.More</t>
   </si>
   <si>
@@ -449,9 +623,6 @@
     <t>09/18/2016</t>
   </si>
   <si>
-    <t>Excellent experience</t>
-  </si>
-  <si>
     <t>Stayed at this location while visiting doctor at UTMB. It was very clean hotel, friendly staff and comfortable room. Room came with full Kitchen with everything you need to cook and eat with.  Price was plus.  It felt like home away from home.</t>
   </si>
   <si>
@@ -470,6 +641,45 @@
     <t>First I would like to say to the person below about the pet thing she wrote. You may have just heard wrong bc when I asked over the phone they clarified everything and I didn't need them to ask a manger for more info or anything like that. But back to my stay at Candlewood with my dog, they treated me very well and they let me know about the pet station which helped. My dog enjoyed the room. Smelled very nice and maintained. Great staff and housekeeping</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r419455234-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>419455234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best hotel . </t>
+  </si>
+  <si>
+    <t>I usually stay at hotels 149 days threw out the qyear, and I am always at Candlewood Suites but this Candlewood blow me away by there Guest Service agents Jasmine and Sue. They went above and beyond for you. Both managers did everything for me to make my stay enjoyable. Pet friendly as well. Had 2 dogs. dog station out back amazing.  I looked out my window looking over the pool everyday around 9am and saw the pool boy/ Maintenance man cleaning and making sure he gets everything perfect. The Candlewood CupBoard was always stocked with fresh items. COFFEE was amazing... the property is very well kept up. All in all I gotta say this is the best property I have ever been to on all my adventures.Thanks again Candlewood league city MoreShow less</t>
+  </si>
+  <si>
+    <t>I usually stay at hotels 149 days threw out the qyear, and I am always at Candlewood Suites but this Candlewood blow me away by there Guest Service agents Jasmine and Sue. They went above and beyond for you. Both managers did everything for me to make my stay enjoyable. Pet friendly as well. Had 2 dogs. dog station out back amazing.  I looked out my window looking over the pool everyday around 9am and saw the pool boy/ Maintenance man cleaning and making sure he gets everything perfect. The Candlewood CupBoard was always stocked with fresh items. COFFEE was amazing... the property is very well kept up. All in all I gotta say this is the best property I have ever been to on all my adventures.Thanks again Candlewood league city More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r418976161-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>418976161</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Not So Pet Friendly</t>
+  </si>
+  <si>
+    <t>Pet policy was clearly listed online.  I called to confirm, as there was no mention of a weight restriction and I wanted to confirm.  I called the front desk and talked with Sue.  After saying what the pet policy was, I asked again about a weight restriction.  I got the question back, "Well how big are they?"  Next I was asked "Is it just for one night?" After saying they were large dogs and I was staying for a few night, I was than told I'd have to pay $75 a night per dog by Sue.  I didn't catch Sues name the first call, so after taking a look online again, I called to ask.  She than said she would ask her manager, who was conviently there for me to clarify, but not talk to.  I was put on hold and than told I could pay the regular $25.  Sounds like either the hotel management is unclear or shafting people on the policy or the employees are doing it.  I am a physician at the near by UTMB Facility and won't be recommending this establishment to anyone, nor will I be staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Pet policy was clearly listed online.  I called to confirm, as there was no mention of a weight restriction and I wanted to confirm.  I called the front desk and talked with Sue.  After saying what the pet policy was, I asked again about a weight restriction.  I got the question back, "Well how big are they?"  Next I was asked "Is it just for one night?" After saying they were large dogs and I was staying for a few night, I was than told I'd have to pay $75 a night per dog by Sue.  I didn't catch Sues name the first call, so after taking a look online again, I called to ask.  She than said she would ask her manager, who was conviently there for me to clarify, but not talk to.  I was put on hold and than told I could pay the regular $25.  Sounds like either the hotel management is unclear or shafting people on the policy or the employees are doing it.  I am a physician at the near by UTMB Facility and won't be recommending this establishment to anyone, nor will I be staying there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r418692137-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -518,6 +728,39 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r378452469-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>378452469</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Excellent for the price</t>
+  </si>
+  <si>
+    <t>Pros:* New owners who care and who have put a ton of money into everything.*Super-low points-per-night cost.*Clean and safe and conveniently located.Cons:*No breakfast.*Only one pool, outside, not heated.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r374358264-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>374358264</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Pleasent Stay</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay for 2 weeks. Housekeeping every 7 nights was great. Did and amazing job cleaning. Mini pantry in the lobby had all my breakfast times I needed even a toaster I can take to my room. some nights I was to lazy to make dinner or go out and the frozen selection for meals was great as well. Free laundry in the lobby 24 hrs wow.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r371799440-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -533,9 +776,6 @@
     <t xml:space="preserve">Clean but had the worst pillows. Very lumpy. The poor quality of the pillows really surprised me since it is a very nice hotel. I do wish they served a hot breakfast! And had afternoon treats. Their services are really sparse considering the room rates. </t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r363889371-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -584,6 +824,36 @@
     <t>We stayed in March 2016 for two nights. We had our two teenage kids and our dog travelling with us. This Candlewood Suites in only one of a handful of hotels who will accept large dogs without ridiculous fees and deposits. The hotel is about 20-25 minutes from Galveston Island. It is located adjacent to several sit down restaurants, several fast-food places, Walmart, HEB and a Cabelas. The check-in process was smooth, the front desk personnel friendly and the lobby clean. They have a pool in the rear of the hotel which is nice since many Candlewood's don't. The hotel is equipped with free Wi-Fi internet throughout.The room we stayed in was a one bedroom suite with a queen sized bed. The bedroom had a flat screen TV, its own air conditioner and was roomy. In the living room area there is a full sized sofa bed with a very uncomfortable mattress, even by sofa bed standards. Needless to say, the kids were not too happy about the sofa bed mattress. There was a recliner, an office chair, desk, flat screen TV and its own air conditioner. The attached kitchen was clean with a full size refrigerator, range and microwave. No oven though. Overall the room and bathroom were clean with no odors. The hotel itself was quiet and in a convenient location. We would definitely stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r358167218-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>358167218</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service!</t>
+  </si>
+  <si>
+    <t>We quickly felt welcome and are so appreciative for the staff's great customer service, specifically the front desk representative, AK. He was extremely helpful and friendly. Needless to say, the quality customer service he provided ensured our future stays when in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r352989452-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>352989452</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>This place has everything !!</t>
+  </si>
+  <si>
+    <t>From the great staff to absolutely everything in the room we needed this place is beyond amazing! Location is awesome as well. There are two grocery stores within minutes from the hotel. Fast food restaurants are a plenty in this area. Plus, laundry machines are complimentary and if you don't have soap it's only $1!  Thank you AK, Susan and to the Mgr of the hotel well done sir!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r348293418-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -644,6 +914,45 @@
     <t>My wife and I are doing a 3 month roadtrip, we have been going now for about 10 days, staying in various budget motels etc. This has been the best by a country mile. Great room, modern, well equipped and very helpful staff . So much so that as we travel onwards we look up Candlewood Suites before anything else. We only paid £50 for the 1 night. Great value.Now in Dallas at another Candlewood.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r345457366-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>345457366</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice facility. Upon entering the room we were surprised to see a towel animal with a paper heart sitting on our bed. Very nice room. The staff at the front desk were friendly and helpful. I was happy with the size and layout of the room. This room had a kitchenette with a full size fridge. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r335306760-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>335306760</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Think Twice </t>
+  </si>
+  <si>
+    <t>My husband and I needed a hotel while in the area for a funeral.  They had 1 room remaining.  We checked in and all I wanted was a long hot shower and a few hours of TV.1.  No remote control and the front desk states they would get a working unit.  Well...this never happened for 2 nights.2.  The shower was a handicapped and the water did not drain and flooded the bathroom.  We used all towels and had to go to front desk for additional towels after cleaning up all of the water.  So taking a shower was most difficult .Let several messages for Front Desk Manager AK and after 4 attempts reached him.  Little to no care for our concerns.Please  check out room before checking in.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>CandlewoodSuiteslct, General Manager at Candlewood Suites League City, responded to this reviewResponded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I needed a hotel while in the area for a funeral.  They had 1 room remaining.  We checked in and all I wanted was a long hot shower and a few hours of TV.1.  No remote control and the front desk states they would get a working unit.  Well...this never happened for 2 nights.2.  The shower was a handicapped and the water did not drain and flooded the bathroom.  We used all towels and had to go to front desk for additional towels after cleaning up all of the water.  So taking a shower was most difficult .Let several messages for Front Desk Manager AK and after 4 attempts reached him.  Little to no care for our concerns.Please  check out room before checking in.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r334021258-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -659,9 +968,6 @@
     <t>I usually don't write reviews, This stay really meant a lot, wanted to Rate Candlewood Suites a 10, From  the moment i checked in  a very friendly young lady greeted me, The highlight was the front Desk Manager AK, I'm bad with names but he was Awesome, the first time meeting him he introduced himself, nad made my expierece feel like home. I travel a lot that is never done. While going through a disater, he made my stay feel like a trip, these days hospitality is not the same rarely see that,This Manager and staff was the best.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>CandlewoodSuiteslct, Manager at Candlewood Suites League City, responded to this reviewResponded January 14, 2016</t>
   </si>
   <si>
@@ -716,6 +1022,45 @@
     <t>I usually don't write reviews but i had to with this hotel. It is by far the best hotel i've ever stayed in!!!!!!!! I've stayed at numerous hotels and they all seem kind of the same, you know the snooty front desk person that acts like she just has better things to do than to help you. smh. This place was TOTALLY different. Everyone was just genually nice there. There was a guy at the front desk named AK or something like that that just goes over and beyond just to help. Then a lady named Sue sat there and played with my 2 yr old son. She had him giggling like no other. I had this vibe the whole time i was there that i just cant explain. It just felt so good and peaceful like i was suppost to be there. In my opinion this is a 5 star hotel for a 2 1/2 star price. LOVED IT!!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r327825855-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>327825855</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Very nice experience</t>
+  </si>
+  <si>
+    <t>We had to break up our trip...2 days at the hotel...2 days staying with family...1 day back at the hotel. We had two different rooms. Our first night was on the 3rd floor, last night was on the first. First of all the value of this hotel is great! The rooms are very clean, the beds were very comfortable. You have a mini kitchen with all you would need to make a simple meal and you have access to snack foods to buy and heat up. Wonderful setup! You have direct access to a major interstate that will take you pretty much anywhere you need to go in the Houston area. The things that kept this hotel from getting a 5 star rating from us were...the gym had most of the machines down...you do have access to the hotel across the road to use their gym,but I felt off doing that. The staff did say the gym was going to be upgraded, just not in time for our stay  The other thing was on the last night we were on the first floor (room 101) and it was quite noisy! Luckily we were exhausted.  All in all it was a very good experience and we will stay here again, just not on the first floor!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to break up our trip...2 days at the hotel...2 days staying with family...1 day back at the hotel. We had two different rooms. Our first night was on the 3rd floor, last night was on the first. First of all the value of this hotel is great! The rooms are very clean, the beds were very comfortable. You have a mini kitchen with all you would need to make a simple meal and you have access to snack foods to buy and heat up. Wonderful setup! You have direct access to a major interstate that will take you pretty much anywhere you need to go in the Houston area. The things that kept this hotel from getting a 5 star rating from us were...the gym had most of the machines down...you do have access to the hotel across the road to use their gym,but I felt off doing that. The staff did say the gym was going to be upgraded, just not in time for our stay  The other thing was on the last night we were on the first floor (room 101) and it was quite noisy! Luckily we were exhausted.  All in all it was a very good experience and we will stay here again, just not on the first floor!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r325277868-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>325277868</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>By far one of the best hotels I have ever stayed at. The managers and owners were very helpful about anything and everything I needed. They were very courteous and friendly and I will definitely be going backMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>By far one of the best hotels I have ever stayed at. The managers and owners were very helpful about anything and everything I needed. They were very courteous and friendly and I will definitely be going backMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r322977636-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -773,6 +1118,39 @@
     <t>I transferred to League City from Houston in my job. Stayed at Candlewood Suites while I was looking for an apartment. I am handicapped. The staff has gone above and beyond for anything I need. They are so warm and friendly. It has made my transitioning so much easier. I highly recommend Candlewood Suites to anyone. Five stars!   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r319352878-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>319352878</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Outstanding service beyond words</t>
+  </si>
+  <si>
+    <t>I just wanted to say this hotel is one of the best hotels I've ever been to in terms of customer service. The staff went above and beyond when I arrived in a very delicate moment of my life. Still they were so discrete, helpful, and went the extra mile to accommodate the extra needs of me and my two kids. I later asked, and it turns out that is family owned! No wonder! Clean neat rooms, free movies and games available, inexpensive snack bar and complimentary items makes this hotel one of the 1st in my list in the Clear Lake - League City area. I have no words to thank them enough. MoreShow less</t>
+  </si>
+  <si>
+    <t>I just wanted to say this hotel is one of the best hotels I've ever been to in terms of customer service. The staff went above and beyond when I arrived in a very delicate moment of my life. Still they were so discrete, helpful, and went the extra mile to accommodate the extra needs of me and my two kids. I later asked, and it turns out that is family owned! No wonder! Clean neat rooms, free movies and games available, inexpensive snack bar and complimentary items makes this hotel one of the 1st in my list in the Clear Lake - League City area. I have no words to thank them enough. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r318401353-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>318401353</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Nice overnight stay</t>
+  </si>
+  <si>
+    <t>We just needed a place for overnight and this was perfect . Room was clean just the right size for 2 people . Right off the Interstate - many places to choose to eat . Wish they would have a continental breakfast but not available - as I guess it is really a extended stay type of hotel . Nice little kitchen all we used it for was coffee .</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r318143148-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -818,13 +1196,46 @@
     <t>09/22/2015</t>
   </si>
   <si>
-    <t>Great hotel</t>
-  </si>
-  <si>
     <t>Great hotel...new management...very friendly staff!  Very responsive to all our needs!  Great location and nice clean room!  The suite had a great kitchen with a full fridge, microwave, cook stove, and coffee maker.  Also very nice pots/pans and dish ware.  They have an exchange at the front desk where you can checkout games, movies, books and other cookware (I.e. Crockpot, etc).</t>
   </si>
   <si>
-    <t>September 2015</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r310263158-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>310263158</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Decently priced and good location</t>
+  </si>
+  <si>
+    <t>This was my second time staying here while traveling through Texas. I enjoy the size of the room, the bathroom and the comfort of the beds. On trip #1 we had a late check in due to our room not being ready, but the service staff made up for it by giving us access to free food and breakfast items the next day that normally wouldn't have been free. On trip # 2 everything went perfectly. There is a Wal-Mart, Starbucks and other restaurants right along the side street of the hotel. It's easy to go and pick up personal items or snacks to bring back to the room. My husband and I will make it a point to stay here on our way through this part of Texas every time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>This was my second time staying here while traveling through Texas. I enjoy the size of the room, the bathroom and the comfort of the beds. On trip #1 we had a late check in due to our room not being ready, but the service staff made up for it by giving us access to free food and breakfast items the next day that normally wouldn't have been free. On trip # 2 everything went perfectly. There is a Wal-Mart, Starbucks and other restaurants right along the side street of the hotel. It's easy to go and pick up personal items or snacks to bring back to the room. My husband and I will make it a point to stay here on our way through this part of Texas every time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r303772344-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>303772344</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Great location for eating, shopping, and doctor's appointments!</t>
+  </si>
+  <si>
+    <t>We chose to stay at this location because of an early out patient surgery at the UTMB Specialty Clinic which is within 2-3 minutes or walking distance.  The staff was very helpful in making sure that the room was ready at the earliest time.  She pointed out various features of the facility and made recommendations for nearby shopping and dining.  The room was very comfortable and my husband and I were impressed by the selection of pillows available. I like firm.  He likes soft. All were available in the room.  The room has a small but well appointed full kitchen.  I can see how someone could be quite comfortable here for a long stay.  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose to stay at this location because of an early out patient surgery at the UTMB Specialty Clinic which is within 2-3 minutes or walking distance.  The staff was very helpful in making sure that the room was ready at the earliest time.  She pointed out various features of the facility and made recommendations for nearby shopping and dining.  The room was very comfortable and my husband and I were impressed by the selection of pillows available. I like firm.  He likes soft. All were available in the room.  The room has a small but well appointed full kitchen.  I can see how someone could be quite comfortable here for a long stay.  Would definitely stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r298790068-Candlewood_Suites_League_City-League_City_Texas.html</t>
@@ -842,9 +1253,6 @@
     <t>We recently stayed at the property for the weekend due to out family reunion being in the area. The hotel staff was very gracious to us the minute we walked in the door. They were well prepared for out large group (around 40 of us total) and made us feel welcome.The full kitchens were stocked nicely and since we were staying with children, it made preparing meals so easy. We used the grill at the pool area and we were able to cookout and have a great family gathering for lunch!</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r286229988-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -887,6 +1295,64 @@
     <t>I travel all over the place and this hotel is the worst I've never felt so uncomfortable The staff is rude and incompetent. The manager is an idiot and while she was talking to one of the guests she made sexual references like I'll come see you upstairs when my shift is over. Plus weird credit card charges and blaming it on the system. Oh man don't ever stay there.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r251864550-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>251864550</t>
+  </si>
+  <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>SO-SO</t>
+  </si>
+  <si>
+    <t>stayed for 4 days the room was ok.  corners weren't quit finished where walls meet ceiling in Kitchen.  They had no regular coffee in hotel and couldn't find ice anywhere.  bed was comfortable.  I had wo small dogs with me, they had a rather large deposit (150) and a lot of rules. wasn't terrible but was hoping for better.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Zhan  J, Front Office Manager at Candlewood Suites League City, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>stayed for 4 days the room was ok.  corners weren't quit finished where walls meet ceiling in Kitchen.  They had no regular coffee in hotel and couldn't find ice anywhere.  bed was comfortable.  I had wo small dogs with me, they had a rather large deposit (150) and a lot of rules. wasn't terrible but was hoping for better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r244780586-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>244780586</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Consistently a great place to stay...</t>
+  </si>
+  <si>
+    <t>This Candlewood Suites location has been one of my favorite places to stay in the Houston area. I have been working in the SE Houston (Baytown/La Porte) area for a few months and have stayed at many places, both hotels and airbnb locations. I have stayed here on multiple occasions from November - December 2014 and also have additional nights booked in the coming weeks.  I very much enjoy this Candlewood Suites for several reasons. 
+1. This location often has specials so watch their pricing. Sometimes I have stayed via hotel discount sites such as hotels.com, Priceline, etc. because really good discounts appear often for this location and they are much deeper discounts than other locations. This hotel location itself often has specials of its own as well so if you have any flexibility in your dates, try different dates to be sure you don’t overlook a discount opportunity. Unlike other locations with discounted rates, this location does not compromise on quality. Often when you save money staying somewhere, you can tell you are doing so by some aspect of quality standards being lower, but not here. 
+2. This hotel is always really clean and the staff is excellent. Even on my first stay, 3 different people at the front desk made an effort to check on me as I was walking by, to give me extra information, to casually converse and build a rapport with me and other guests...This Candlewood Suites location has been one of my favorite places to stay in the Houston area. I have been working in the SE Houston (Baytown/La Porte) area for a few months and have stayed at many places, both hotels and airbnb locations. I have stayed here on multiple occasions from November - December 2014 and also have additional nights booked in the coming weeks.  I very much enjoy this Candlewood Suites for several reasons. 1. This location often has specials so watch their pricing. Sometimes I have stayed via hotel discount sites such as hotels.com, Priceline, etc. because really good discounts appear often for this location and they are much deeper discounts than other locations. This hotel location itself often has specials of its own as well so if you have any flexibility in your dates, try different dates to be sure you don’t overlook a discount opportunity. Unlike other locations with discounted rates, this location does not compromise on quality. Often when you save money staying somewhere, you can tell you are doing so by some aspect of quality standards being lower, but not here. 2. This hotel is always really clean and the staff is excellent. Even on my first stay, 3 different people at the front desk made an effort to check on me as I was walking by, to give me extra information, to casually converse and build a rapport with me and other guests and to inform me about good places to eat and things to do in the area. They make an effort to connect to customers and everyone I have interacted with has a really good grasp on how to interact without overdoing it or under-doing it. One of the nights when I arrived very late in the night, a night clerk even helped me carry things in when it was raining. Every time I call the front desk, the staff has been courteous and if needed, gets back to me. When I have extended my stay, even extending a stay booked via hotels.com to another night directly through Candlewood Suites or vice versa, they made sure I did not have to change rooms. Every check in and check out has been smooth and I have never had to wait around at the front desk. This has been great especially when I have either had to drive a lot that day from one work location to the next and really just wanting to get there and check in and get to bed or when I have had to rush out early in the morning for work. In most other hotels, checking out especially can be a drag. Here, it has been quick, efficient, friendly and easy. 3. Free/Courtesy Laundry Facilities – This hotel has 3 washing machines, one of which is even a front loader, and 4 dryers, all of which work great, are clean and well maintained, and are completely free for guests. The laundry room is open 24 hours and also a very open space in which to do and organize laundry, with a nice shelf and table. Additionally, in the closet of each room, there is laundry basket for guests to use. I have stayed at other Candlewood Suites that had the laundry basket and laundry services, but they were not free or as well set up. This service has meant a lot to me while working and having to live in hotels. One of the guests said she travels to the area for her son's sports tournaments and when she traveled they usually got home and she had a bunch of dreaded laundry to do with dirty baseball uniforms to look forward to. She loves staying here and getting home with everything already clean. There was also a father with 3 sons who did a bunch of fishing and they were laughing that they were actually going to do their laundry instead of dragging it home and how happy the mom was going to be but also how much less the SUV was going to stink on the way home.4. Location – This is a little off the beaten path from where I was originally staying. I love being near Kemah and Seabrook for the ocean views, the sunsets and the sunrises. Even La Porte has really pretty views. I have been working mostly in Baytown, so this was about a 20-25 minute drive without traffic, but I found it to be really easy to get to/from this hotel from all of those places I regularly like to visit for work or recreation. The drive was pretty low traffic and there were several routes to get places whether going toward the bay or going to Houston. Right by the hotel are many restaurants, both local and chain, ranging from fast food to family places to more upscale establishments. There are also many stores for shopping and access to 2 good grocery stores. I love to stay here on the weekend, get my laundry done and get my grocery shopping and cooking done, since there is a good kitchen in the hotel room with just enough of everything. This location has enabled me to plan what I eat for the week better, to eat better and to actually get to cook. 5. Safety – This is a safe location with a highway on one side and a neighborhood behind it. There is frequently a security vehicle circulating which I believe is associated with the nearby stores and restaurants, but it is extra security for the parking lot at the hotel. The parking lot is also well lit. 6. Nice Gym – Very well maintained and clean – adjacent to the laundry room and near the front desk. Watch TV and work out. 7. Nice front lobby TV and computer area – also adjacent to the laundry room. Though I always have hung out in my room while my laundry is going, I have noticed a lot of people enjoy either working out or hanging out in the living room area near the front desk. Rather than being a tiny isolated office space, the computer area is within view of the large TV and the printer is within view and earshot of the front desk so it is kept up and if you run out of paper or toner, they're right there to take care of the problem. This is one hotel that does not have the same annoying static Fox news playing that most do. The guests control the TV and it feels more like a living room than a hotel lobby. The staff interacts and is fun to interact with. If they are ordering out for food or have any festivity going on, they offer to include you. It’s just very “homey” and less sterile. I was a little tired and cranky my first stay from having had really long hours at work and I honestly felt happier after staying here. 8. Overall feeling of home – I feel really at home here and did from the first night. I have since stayed multiple times and every single time has been equally clean, friendly and reliable. It is a relief for me to get to stay here and I am pretty picky. I appreciate the bulletin board outside of the elevator that tells what’s going on with the weather, the area and the hotel. This is one place where things run smoothly and I don’t end up getting distracted or wasting time on mishaps or poor process planning. I think this staff is a good team and they seem happy at work. They remember your name and take care of you. That’s home to me and means a lot as much as I travel.  9. Easy to Maneuver Luggage Carts - This might seem really trivial but the luggage carts this hotel has are the easiest to maneuver I have ever dealt with. I don’t know what’s up with the ones most hotels have. They seem heavy duty and really sturdy like they’re going to be so great to use, but then they are ridiculous to maneuver about. I have to drag in and out a lot of stuff because of the nature of my work, plus at this hotel, doing my laundry, I like to just take it all in and get sorted and organized. I absolutely love the luggage carts here. The wheels and the carts are slightly lighter weight and the wheels turn really easily so you can turn them any which way, but they’re still sturdy. Big relief to me. 10. The room itself has a great layout and the free wifi works great, the bed was really comfortable as were the linens and the pillows are awesome. I usually take my own pillow in when I stay at a lot of places but here I don't have to. Nice bathtubs, too and you can see the TV from the bathtub. Kinda fun. 11. The good outdoors - I am a cyclist and here you are nearby good roads for biking as well as a lot of good countryside to bike around in if you prefer off road cycling or walking. The nearby neighborhood is really nice and safe to bike and walk around in and there are some good open roads as well. You are also not far from the shores of Kemah and Seabrook if you like cycling or kayaking/boating, fishing or walking outdoors by the water. I am a photographer and enjoy getting up at sunrise and trying to get somewhere good by sunset to take pictures. Here I was still not far from the water but also was near some pretty countryside views and there was a beautiful park nearby I think in Dickinson that was just 5 minutes away. At first when I booked here for the price I thought I might not be able to still do all of that stuff I do because I was further in from the bay, but everything was still really accessible and I was pleasantly surprised.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Zhan  J, Manager at Candlewood Suites League City, responded to this reviewResponded December 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2014</t>
+  </si>
+  <si>
+    <t>This Candlewood Suites location has been one of my favorite places to stay in the Houston area. I have been working in the SE Houston (Baytown/La Porte) area for a few months and have stayed at many places, both hotels and airbnb locations. I have stayed here on multiple occasions from November - December 2014 and also have additional nights booked in the coming weeks.  I very much enjoy this Candlewood Suites for several reasons. 
+1. This location often has specials so watch their pricing. Sometimes I have stayed via hotel discount sites such as hotels.com, Priceline, etc. because really good discounts appear often for this location and they are much deeper discounts than other locations. This hotel location itself often has specials of its own as well so if you have any flexibility in your dates, try different dates to be sure you don’t overlook a discount opportunity. Unlike other locations with discounted rates, this location does not compromise on quality. Often when you save money staying somewhere, you can tell you are doing so by some aspect of quality standards being lower, but not here. 
+2. This hotel is always really clean and the staff is excellent. Even on my first stay, 3 different people at the front desk made an effort to check on me as I was walking by, to give me extra information, to casually converse and build a rapport with me and other guests...This Candlewood Suites location has been one of my favorite places to stay in the Houston area. I have been working in the SE Houston (Baytown/La Porte) area for a few months and have stayed at many places, both hotels and airbnb locations. I have stayed here on multiple occasions from November - December 2014 and also have additional nights booked in the coming weeks.  I very much enjoy this Candlewood Suites for several reasons. 1. This location often has specials so watch their pricing. Sometimes I have stayed via hotel discount sites such as hotels.com, Priceline, etc. because really good discounts appear often for this location and they are much deeper discounts than other locations. This hotel location itself often has specials of its own as well so if you have any flexibility in your dates, try different dates to be sure you don’t overlook a discount opportunity. Unlike other locations with discounted rates, this location does not compromise on quality. Often when you save money staying somewhere, you can tell you are doing so by some aspect of quality standards being lower, but not here. 2. This hotel is always really clean and the staff is excellent. Even on my first stay, 3 different people at the front desk made an effort to check on me as I was walking by, to give me extra information, to casually converse and build a rapport with me and other guests and to inform me about good places to eat and things to do in the area. They make an effort to connect to customers and everyone I have interacted with has a really good grasp on how to interact without overdoing it or under-doing it. One of the nights when I arrived very late in the night, a night clerk even helped me carry things in when it was raining. Every time I call the front desk, the staff has been courteous and if needed, gets back to me. When I have extended my stay, even extending a stay booked via hotels.com to another night directly through Candlewood Suites or vice versa, they made sure I did not have to change rooms. Every check in and check out has been smooth and I have never had to wait around at the front desk. This has been great especially when I have either had to drive a lot that day from one work location to the next and really just wanting to get there and check in and get to bed or when I have had to rush out early in the morning for work. In most other hotels, checking out especially can be a drag. Here, it has been quick, efficient, friendly and easy. 3. Free/Courtesy Laundry Facilities – This hotel has 3 washing machines, one of which is even a front loader, and 4 dryers, all of which work great, are clean and well maintained, and are completely free for guests. The laundry room is open 24 hours and also a very open space in which to do and organize laundry, with a nice shelf and table. Additionally, in the closet of each room, there is laundry basket for guests to use. I have stayed at other Candlewood Suites that had the laundry basket and laundry services, but they were not free or as well set up. This service has meant a lot to me while working and having to live in hotels. One of the guests said she travels to the area for her son's sports tournaments and when she traveled they usually got home and she had a bunch of dreaded laundry to do with dirty baseball uniforms to look forward to. She loves staying here and getting home with everything already clean. There was also a father with 3 sons who did a bunch of fishing and they were laughing that they were actually going to do their laundry instead of dragging it home and how happy the mom was going to be but also how much less the SUV was going to stink on the way home.4. Location – This is a little off the beaten path from where I was originally staying. I love being near Kemah and Seabrook for the ocean views, the sunsets and the sunrises. Even La Porte has really pretty views. I have been working mostly in Baytown, so this was about a 20-25 minute drive without traffic, but I found it to be really easy to get to/from this hotel from all of those places I regularly like to visit for work or recreation. The drive was pretty low traffic and there were several routes to get places whether going toward the bay or going to Houston. Right by the hotel are many restaurants, both local and chain, ranging from fast food to family places to more upscale establishments. There are also many stores for shopping and access to 2 good grocery stores. I love to stay here on the weekend, get my laundry done and get my grocery shopping and cooking done, since there is a good kitchen in the hotel room with just enough of everything. This location has enabled me to plan what I eat for the week better, to eat better and to actually get to cook. 5. Safety – This is a safe location with a highway on one side and a neighborhood behind it. There is frequently a security vehicle circulating which I believe is associated with the nearby stores and restaurants, but it is extra security for the parking lot at the hotel. The parking lot is also well lit. 6. Nice Gym – Very well maintained and clean – adjacent to the laundry room and near the front desk. Watch TV and work out. 7. Nice front lobby TV and computer area – also adjacent to the laundry room. Though I always have hung out in my room while my laundry is going, I have noticed a lot of people enjoy either working out or hanging out in the living room area near the front desk. Rather than being a tiny isolated office space, the computer area is within view of the large TV and the printer is within view and earshot of the front desk so it is kept up and if you run out of paper or toner, they're right there to take care of the problem. This is one hotel that does not have the same annoying static Fox news playing that most do. The guests control the TV and it feels more like a living room than a hotel lobby. The staff interacts and is fun to interact with. If they are ordering out for food or have any festivity going on, they offer to include you. It’s just very “homey” and less sterile. I was a little tired and cranky my first stay from having had really long hours at work and I honestly felt happier after staying here. 8. Overall feeling of home – I feel really at home here and did from the first night. I have since stayed multiple times and every single time has been equally clean, friendly and reliable. It is a relief for me to get to stay here and I am pretty picky. I appreciate the bulletin board outside of the elevator that tells what’s going on with the weather, the area and the hotel. This is one place where things run smoothly and I don’t end up getting distracted or wasting time on mishaps or poor process planning. I think this staff is a good team and they seem happy at work. They remember your name and take care of you. That’s home to me and means a lot as much as I travel.  9. Easy to Maneuver Luggage Carts - This might seem really trivial but the luggage carts this hotel has are the easiest to maneuver I have ever dealt with. I don’t know what’s up with the ones most hotels have. They seem heavy duty and really sturdy like they’re going to be so great to use, but then they are ridiculous to maneuver about. I have to drag in and out a lot of stuff because of the nature of my work, plus at this hotel, doing my laundry, I like to just take it all in and get sorted and organized. I absolutely love the luggage carts here. The wheels and the carts are slightly lighter weight and the wheels turn really easily so you can turn them any which way, but they’re still sturdy. Big relief to me. 10. The room itself has a great layout and the free wifi works great, the bed was really comfortable as were the linens and the pillows are awesome. I usually take my own pillow in when I stay at a lot of places but here I don't have to. Nice bathtubs, too and you can see the TV from the bathtub. Kinda fun. 11. The good outdoors - I am a cyclist and here you are nearby good roads for biking as well as a lot of good countryside to bike around in if you prefer off road cycling or walking. The nearby neighborhood is really nice and safe to bike and walk around in and there are some good open roads as well. You are also not far from the shores of Kemah and Seabrook if you like cycling or kayaking/boating, fishing or walking outdoors by the water. I am a photographer and enjoy getting up at sunrise and trying to get somewhere good by sunset to take pictures. Here I was still not far from the water but also was near some pretty countryside views and there was a beautiful park nearby I think in Dickinson that was just 5 minutes away. At first when I booked here for the price I thought I might not be able to still do all of that stuff I do because I was further in from the bay, but everything was still really accessible and I was pleasantly surprised.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r244596913-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -902,9 +1368,6 @@
     <t>I stayed her for business trip. The room was clean and the hotel itself looked nice! I has a studio room  which had a full-size refrigerator, stove and sink. I did not need this as I did not use. I found a great deal for the room and thought I would try something different than the low-cost rooms (without any amenities) I usually stay. I was there for (3) days. Front desk staff was VERY nice!. I checked in late (1am) and out early (3am). Only one issue was a dripping noise that came from the outside. Might have been water dripping in the downspout was NOT a problem as I was able to sleep with no problem. Overall a great stay, no major complaints.MoreShow less</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
     <t>Zhan  J, General Manager at Candlewood Suites League City, responded to this reviewResponded December 17, 2014</t>
   </si>
   <si>
@@ -968,6 +1431,57 @@
     <t>Have to say of all the hotels I've stayed in, this ones architectural design has a flaw.  The area where the bed furniture is supposed to be is small and not designed to fit a king bed.  I had a recliner chair literally next to the bed and had to step sideways to get in and out of bed, same with the other side next to the wall.  The rest of the room and bathroom were nice.They do not come and freshen up the room daily so if you need clean towels or other items you have to get them from the from desk, which works for me. The hotel staff Karla at the front desk &amp; Zhan Jacks the manager were really really nice and went out of their way to make your stay very enjoyable, Thanks you two for all you do everyday for your guests. AWESOME...AWESOME JOB!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r233847399-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>233847399</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Better housekeeping at a flophouse</t>
+  </si>
+  <si>
+    <t>When I checked in on Sept. 21st, I was told that the rooms were cleaned every 7 days. After 9 days, I told the lady at the front desk that my room needed cleaning. She replied that she would leave a note for Housekeeping. When I came in the next night and the room still wasn't clean, I sent an e-mail to Corporate Headquarters asking what I needed to do to get my room cleaned. The next night when I came in, the bed had been made and clean towels left. The carpet was dirty and dust was still on every flat surface. When I came in the next night, the bed had been made again. The carpet was still filthy and dust was still everywhere. That was 9 days ago and I haven't seen Housekeeping since. I'm still here since I don't have time to move (working 7/12's). I've had better service from a 5$ a night dump. This place is 77$ a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Zhan J, General Manager at Candlewood Suites League City, responded to this reviewResponded October 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2014</t>
+  </si>
+  <si>
+    <t>When I checked in on Sept. 21st, I was told that the rooms were cleaned every 7 days. After 9 days, I told the lady at the front desk that my room needed cleaning. She replied that she would leave a note for Housekeeping. When I came in the next night and the room still wasn't clean, I sent an e-mail to Corporate Headquarters asking what I needed to do to get my room cleaned. The next night when I came in, the bed had been made and clean towels left. The carpet was dirty and dust was still on every flat surface. When I came in the next night, the bed had been made again. The carpet was still filthy and dust was still everywhere. That was 9 days ago and I haven't seen Housekeeping since. I'm still here since I don't have time to move (working 7/12's). I've had better service from a 5$ a night dump. This place is 77$ a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r231637591-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>231637591</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Reservation? What's that??</t>
+  </si>
+  <si>
+    <t>I will start by saying that this was my first, and last, stay at the Candlewood Suites in League City. I booked my reservations 2 days in advance of my stay, had the confirmation in hand when I walked in the front door, only to be told that they did not have any of those rooms available. Then what was the reservation for??? The lady behind the counter, whose name I can neither pronounce or spell, kindly told me that, instead of the 2 room suite, with 2 double beds that I had reserved, she would be happy to put my daughter and I into a single room with a queen sized bed for the same rate. I get 1/2 the room for the same rate??? That's supposed to be some kind of favor to me??? To make things even worse, the night person calls me at 3:00 in the morning for a wake up call. I did not request a wake up call at 3:00 a.m. At 5:00 a.m. I finally gave up, woke up my daughter and told her we were leaving. When I got to the front desk for check out, I had to ring the desk bell 5 or 6 times to wake up the person that was sleeping behind a bookshelf to check me out. She apologized for waking me with the phone call and said it was for someone at ANOTHER HOTEL. What??? When...I will start by saying that this was my first, and last, stay at the Candlewood Suites in League City. I booked my reservations 2 days in advance of my stay, had the confirmation in hand when I walked in the front door, only to be told that they did not have any of those rooms available. Then what was the reservation for??? The lady behind the counter, whose name I can neither pronounce or spell, kindly told me that, instead of the 2 room suite, with 2 double beds that I had reserved, she would be happy to put my daughter and I into a single room with a queen sized bed for the same rate. I get 1/2 the room for the same rate??? That's supposed to be some kind of favor to me??? To make things even worse, the night person calls me at 3:00 in the morning for a wake up call. I did not request a wake up call at 3:00 a.m. At 5:00 a.m. I finally gave up, woke up my daughter and told her we were leaving. When I got to the front desk for check out, I had to ring the desk bell 5 or 6 times to wake up the person that was sleeping behind a bookshelf to check me out. She apologized for waking me with the phone call and said it was for someone at ANOTHER HOTEL. What??? When I asked for a receipt, to be sure they did not charge me for the 2-room suite, she told me that her printer wasn't working and she would not be able to print it out. When I checked my e-mail this morning. My e-receipt says I stayed in a 2-room suite for a night! This will NEVER happen to me again. You ripped me off once, but you'll not get the chance to rip me off again!! I hope this saves someone else the same grief I endured.SusanH.MoreShow less</t>
+  </si>
+  <si>
+    <t>Zhan J, General Manager at Candlewood Suites League City, responded to this reviewResponded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2014</t>
+  </si>
+  <si>
+    <t>I will start by saying that this was my first, and last, stay at the Candlewood Suites in League City. I booked my reservations 2 days in advance of my stay, had the confirmation in hand when I walked in the front door, only to be told that they did not have any of those rooms available. Then what was the reservation for??? The lady behind the counter, whose name I can neither pronounce or spell, kindly told me that, instead of the 2 room suite, with 2 double beds that I had reserved, she would be happy to put my daughter and I into a single room with a queen sized bed for the same rate. I get 1/2 the room for the same rate??? That's supposed to be some kind of favor to me??? To make things even worse, the night person calls me at 3:00 in the morning for a wake up call. I did not request a wake up call at 3:00 a.m. At 5:00 a.m. I finally gave up, woke up my daughter and told her we were leaving. When I got to the front desk for check out, I had to ring the desk bell 5 or 6 times to wake up the person that was sleeping behind a bookshelf to check me out. She apologized for waking me with the phone call and said it was for someone at ANOTHER HOTEL. What??? When...I will start by saying that this was my first, and last, stay at the Candlewood Suites in League City. I booked my reservations 2 days in advance of my stay, had the confirmation in hand when I walked in the front door, only to be told that they did not have any of those rooms available. Then what was the reservation for??? The lady behind the counter, whose name I can neither pronounce or spell, kindly told me that, instead of the 2 room suite, with 2 double beds that I had reserved, she would be happy to put my daughter and I into a single room with a queen sized bed for the same rate. I get 1/2 the room for the same rate??? That's supposed to be some kind of favor to me??? To make things even worse, the night person calls me at 3:00 in the morning for a wake up call. I did not request a wake up call at 3:00 a.m. At 5:00 a.m. I finally gave up, woke up my daughter and told her we were leaving. When I got to the front desk for check out, I had to ring the desk bell 5 or 6 times to wake up the person that was sleeping behind a bookshelf to check me out. She apologized for waking me with the phone call and said it was for someone at ANOTHER HOTEL. What??? When I asked for a receipt, to be sure they did not charge me for the 2-room suite, she told me that her printer wasn't working and she would not be able to print it out. When I checked my e-mail this morning. My e-receipt says I stayed in a 2-room suite for a night! This will NEVER happen to me again. You ripped me off once, but you'll not get the chance to rip me off again!! I hope this saves someone else the same grief I endured.SusanH.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r225452031-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1554,48 @@
     <t>After driving 5 hours from our home to enjoy our last summer vacation, we got a call the morning of the date we were to check in, unfortunately we did not receive the call, so we were left a voice mail saying my cc on file was invalid and instead of waiting til check in or at least til I checked my voice mail to call back,  the sales manager took the liberty of cancelling our reservations! Check in time for most hotels is 3 or 4 o'clock, the voice mail was left at 9 a.m. that morning, I called her back as soon as I got the message which was still before check in. She was very rude, uncooperative and unsympathetic to the fact me and my family had driven 5 hours to enjoy our weekend and now had no where to stay! All she could say was book again, after I tried, with no help from her at all, the rate I was trying to book was blocked out! All she could suggest was for me to book another hotel and proceeded to tell me how she had a line of guest in front of her, so I guess me and my situation wasn't important enough for her to deal with anymore. I felt as if me and my family were dismissed like a piece of garbage, I traveled on a budget with the rate I booked in...After driving 5 hours from our home to enjoy our last summer vacation, we got a call the morning of the date we were to check in, unfortunately we did not receive the call, so we were left a voice mail saying my cc on file was invalid and instead of waiting til check in or at least til I checked my voice mail to call back,  the sales manager took the liberty of cancelling our reservations! Check in time for most hotels is 3 or 4 o'clock, the voice mail was left at 9 a.m. that morning, I called her back as soon as I got the message which was still before check in. She was very rude, uncooperative and unsympathetic to the fact me and my family had driven 5 hours to enjoy our weekend and now had no where to stay! All she could say was book again, after I tried, with no help from her at all, the rate I was trying to book was blocked out! All she could suggest was for me to book another hotel and proceeded to tell me how she had a line of guest in front of her, so I guess me and my situation wasn't important enough for her to deal with anymore. I felt as if me and my family were dismissed like a piece of garbage, I traveled on a budget with the rate I booked in that budget. Our reason for traveling was to visit Galveston, as you well know the rates there are very high, so we chose to stay a little further to pay a much lower rate and make the 30 min drive to the beach, so for her to suggest for me to just book another hotel as if she knew what my pocketbook looked like was unacceptable. If you are a traveler you well know booking in or even close to a popular location is not so easy or cheap when your booking the day of, I had these reservations booked for months and for her to just cancel our reservations over something that could have been so easily fixed was very unprofessional! I will never suggest anyone go to this hotel and I don't plan to book there ever again, if the experience was bad before we got there I can just imagine what we would have had to deal had we stayed there!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r221357403-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>221357403</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Home Away from Home, Quiet, Convenient</t>
+  </si>
+  <si>
+    <t>Very clean rooms. Staff was nice. Hotel very close to Kemah boardwalk and Galveston. Also, very close to Tanger Outlet, Baybrook Mall, lots of eating choices and Walmart. Everything you need is close by. This hotel offers free laundry amenities which is a plus. We frequent this area quite often for vacation. I will definitely be lodging here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Zhan J, Owner at Candlewood Suites League City, responded to this reviewResponded August 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2014</t>
+  </si>
+  <si>
+    <t>Very clean rooms. Staff was nice. Hotel very close to Kemah boardwalk and Galveston. Also, very close to Tanger Outlet, Baybrook Mall, lots of eating choices and Walmart. Everything you need is close by. This hotel offers free laundry amenities which is a plus. We frequent this area quite often for vacation. I will definitely be lodging here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r220759215-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>220759215</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Clean and meets basic hotel needs</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed here with our 19 month old girl.  The hotel is clean and the staff is very friendly and helpful.  The location is great, very close to many restaurants and shopping.  If you are traveling for business or without kids this place would work well for you.  It's got a kitchenette so if you are planning an extended stay this would help too, we used the fridge a lot since we stayed for four nights.  This hotel is not very kid friendly and is very sparse on amenities, so if you are traveling for pleasure or with family maybe go for different accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed here with our 19 month old girl.  The hotel is clean and the staff is very friendly and helpful.  The location is great, very close to many restaurants and shopping.  If you are traveling for business or without kids this place would work well for you.  It's got a kitchenette so if you are planning an extended stay this would help too, we used the fridge a lot since we stayed for four nights.  This hotel is not very kid friendly and is very sparse on amenities, so if you are traveling for pleasure or with family maybe go for different accommodations.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r218260597-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1671,56 @@
     <t>We stayed at this hotel for a few days after selling our house.  The Hotel has spacious rooms and the property is new and close to a lot of restaurants etc.  The rooms have everything you need, good size bathrooms and all the items you need to cook a meal.  What really makes this hotel great is the excellent service by the employees.  The employees went beyond what was expected of them and helped us on several occasions, making our stay great.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r201699285-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>201699285</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>I booked several rooms for my baseball team and the staff was excellent. The Sales Manager was very helpful and went over and beyond to accommodate my team. I know that there were several of the ball players whom were noisy, but the front desk handled everything very professionally.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Zhan J, Manager at Candlewood Suites League City, responded to this reviewResponded May 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2014</t>
+  </si>
+  <si>
+    <t>I booked several rooms for my baseball team and the staff was excellent. The Sales Manager was very helpful and went over and beyond to accommodate my team. I know that there were several of the ball players whom were noisy, but the front desk handled everything very professionally.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r201451051-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>201451051</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Terrible Personnel</t>
+  </si>
+  <si>
+    <t>4/16/2014
+I called around 9am to confirm at 7 day reservation and I spoke with a woman who said she was the sales manager. She was beyond rude, unprofessional, and refused to help adjust my reservation. After receiving such terrible service over the phone I wanted to cancel the reservation all together and stay clear from this hotel. The woman then said that the hotel requires a 24hr notice of cancellation and that I would be charged for one day even if I did not stay at the hotel. She should not be in an sort of hospitality operation. I ended up calling customer care and getting the reservation fixed however I was forced to check in for one day to this horrible hotel around 11pm. The "sales manager" had cancelled my reservation and changed the room rate for double our negotiated rate. The night attendant had strict notes on my reservation to charge the amount posted and had no sort of empowerment to adjust the rate even after confirming with customer care that the amount charged should not have been authorized. It took over 45 minutes to check in to hotel and I was on the phone with customer care  the next morning for more than 3 hours to fix this problem. The woman in this position was a rude, unprofessional, and spiteful. She was not in any way hospitable and should go to a different industry, she does...4/16/2014I called around 9am to confirm at 7 day reservation and I spoke with a woman who said she was the sales manager. She was beyond rude, unprofessional, and refused to help adjust my reservation. After receiving such terrible service over the phone I wanted to cancel the reservation all together and stay clear from this hotel. The woman then said that the hotel requires a 24hr notice of cancellation and that I would be charged for one day even if I did not stay at the hotel. She should not be in an sort of hospitality operation. I ended up calling customer care and getting the reservation fixed however I was forced to check in for one day to this horrible hotel around 11pm. The "sales manager" had cancelled my reservation and changed the room rate for double our negotiated rate. The night attendant had strict notes on my reservation to charge the amount posted and had no sort of empowerment to adjust the rate even after confirming with customer care that the amount charged should not have been authorized. It took over 45 minutes to check in to hotel and I was on the phone with customer care  the next morning for more than 3 hours to fix this problem. The woman in this position was a rude, unprofessional, and spiteful. She was not in any way hospitable and should go to a different industry, she does realize the importance  of genuine customer service. Due to this woman's terrible customer service I will NEVER go here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded May 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2014</t>
+  </si>
+  <si>
+    <t>4/16/2014
+I called around 9am to confirm at 7 day reservation and I spoke with a woman who said she was the sales manager. She was beyond rude, unprofessional, and refused to help adjust my reservation. After receiving such terrible service over the phone I wanted to cancel the reservation all together and stay clear from this hotel. The woman then said that the hotel requires a 24hr notice of cancellation and that I would be charged for one day even if I did not stay at the hotel. She should not be in an sort of hospitality operation. I ended up calling customer care and getting the reservation fixed however I was forced to check in for one day to this horrible hotel around 11pm. The "sales manager" had cancelled my reservation and changed the room rate for double our negotiated rate. The night attendant had strict notes on my reservation to charge the amount posted and had no sort of empowerment to adjust the rate even after confirming with customer care that the amount charged should not have been authorized. It took over 45 minutes to check in to hotel and I was on the phone with customer care  the next morning for more than 3 hours to fix this problem. The woman in this position was a rude, unprofessional, and spiteful. She was not in any way hospitable and should go to a different industry, she does...4/16/2014I called around 9am to confirm at 7 day reservation and I spoke with a woman who said she was the sales manager. She was beyond rude, unprofessional, and refused to help adjust my reservation. After receiving such terrible service over the phone I wanted to cancel the reservation all together and stay clear from this hotel. The woman then said that the hotel requires a 24hr notice of cancellation and that I would be charged for one day even if I did not stay at the hotel. She should not be in an sort of hospitality operation. I ended up calling customer care and getting the reservation fixed however I was forced to check in for one day to this horrible hotel around 11pm. The "sales manager" had cancelled my reservation and changed the room rate for double our negotiated rate. The night attendant had strict notes on my reservation to charge the amount posted and had no sort of empowerment to adjust the rate even after confirming with customer care that the amount charged should not have been authorized. It took over 45 minutes to check in to hotel and I was on the phone with customer care  the next morning for more than 3 hours to fix this problem. The woman in this position was a rude, unprofessional, and spiteful. She was not in any way hospitable and should go to a different industry, she does realize the importance  of genuine customer service. Due to this woman's terrible customer service I will NEVER go here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r198602203-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -1130,9 +1736,6 @@
     <t>Absolutely terrible customer service. Poorly greeted at the front desk upon arrival. Made it to the room and found that an error had been made when booking and my husband and I had a queen bed instead of the King. Went to the front desk clerk who told me that there were no Kings available in the hotel. I did a quick search online and found that there were actually several empty rooms, when I asked her about this, she said that because I had booked our room thru a 3rd party there was nothing the hotel could do to help me. Still curious why she didn't tell us this first instead of giving us the standard response that there were no rooms available when in fact there were. I then asked if we could pay the difference in the rooms to have the King and she said no we could just book another room, but other then that she could not help me. I accepted defeat and went back to the room. The bed had 3 rather thin pillows on it, then went again to the front desk to request 1 additional pillow, front desk clerk told me there were no pillows available. To add salt to the wound, the AC did not properly work in the room, constantly maintaining a temp of 78. We will never stay in a Candlewood Suites again, really terrible service. DO NOT care...Absolutely terrible customer service. Poorly greeted at the front desk upon arrival. Made it to the room and found that an error had been made when booking and my husband and I had a queen bed instead of the King. Went to the front desk clerk who told me that there were no Kings available in the hotel. I did a quick search online and found that there were actually several empty rooms, when I asked her about this, she said that because I had booked our room thru a 3rd party there was nothing the hotel could do to help me. Still curious why she didn't tell us this first instead of giving us the standard response that there were no rooms available when in fact there were. I then asked if we could pay the difference in the rooms to have the King and she said no we could just book another room, but other then that she could not help me. I accepted defeat and went back to the room. The bed had 3 rather thin pillows on it, then went again to the front desk to request 1 additional pillow, front desk clerk told me there were no pillows available. To add salt to the wound, the AC did not properly work in the room, constantly maintaining a temp of 78. We will never stay in a Candlewood Suites again, really terrible service. DO NOT care about their guests at all. Save yourself a headache and book the Hampton next door. MoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>Ruth V, Manager at Candlewood Suites League City, responded to this reviewResponded March 26, 2014</t>
   </si>
   <si>
@@ -1178,6 +1781,54 @@
     <t>Stayed here over spring break. The hotel was full but we were never bothered by noise. We stayed in a 1 bedroom suite which was enough space for our family of 4. Room includes a kitchen with refrigerator, microwave, dishwasher, and basic utensils. Note this is an extended stay hotel so it does not come with daily room cleaning, although you can request it. Also there is no breakfast, but with the kitchen you can keep your own food to save money on meals. Both tv's also had a dvd player, although the remotes never worked with the dvd. We had to request linens for the pull-out couch and extra towels, and these were provided although service was a little slow. Wifi internet is available, but it is a spotty connection. If needing internet, I'd recommend bringing an ethernet cable (wired is also available). Pool and workout room appeared maintained and in good condition. Front desk staff were friendly. Hotel is located within 15 minutes of places like NASA, Kemah boardwalk, and about 20 minutes to galveston - the rate is much cheaper here than closer to the attractions and it was worth the extra savings. Also near many shops and restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r190657451-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>190657451</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We had a great stay April 2013. If you aren't familiar with Candlewood, there are full kitchens in the rooms, queen bed, laundry rooms on site ( very clean).  Staff was ok, didn't go above and beyond but were friendly as long as you didn't need/ask/want anything that required extra work.  Still, great stay.  Love the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>We had a great stay April 2013. If you aren't familiar with Candlewood, there are full kitchens in the rooms, queen bed, laundry rooms on site ( very clean).  Staff was ok, didn't go above and beyond but were friendly as long as you didn't need/ask/want anything that required extra work.  Still, great stay.  Love the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r189682873-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>189682873</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Too many problems</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel many times because the location is near my interest and during non-summer months the fee was fairly reasonable. The problem is you get what you pay for. After my last stay will be my last stay. Reason I stayed this last one time was due to the fact that during my previous stay I had to move rooms several times and the new general manager sorted it out and asked me to give it another chance as she was trying to resolve all the problems with the hotel. We'll she was not there anymore this visit so back to the old same.One recurring problem is the ice machine in the fridge doesn't start making ice for hours. When it does begin making ice it maybe will make a glass of ice over a day. This is in all the rooms that I stayed in. The hotel has no other ice available. I always had to go buy ice for the stay.Lastly the internet service is intermittent and drops every few minutes.  This last stay the phone started ringing every 10 minutes at 7 am. The front desk said the system went down over night. But this has happened to me before at this hotel. So much for sleeping in.If you want to stay somewhere cheap and you are easy to please this is a good stay. Otherwise find another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites League City, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel many times because the location is near my interest and during non-summer months the fee was fairly reasonable. The problem is you get what you pay for. After my last stay will be my last stay. Reason I stayed this last one time was due to the fact that during my previous stay I had to move rooms several times and the new general manager sorted it out and asked me to give it another chance as she was trying to resolve all the problems with the hotel. We'll she was not there anymore this visit so back to the old same.One recurring problem is the ice machine in the fridge doesn't start making ice for hours. When it does begin making ice it maybe will make a glass of ice over a day. This is in all the rooms that I stayed in. The hotel has no other ice available. I always had to go buy ice for the stay.Lastly the internet service is intermittent and drops every few minutes.  This last stay the phone started ringing every 10 minutes at 7 am. The front desk said the system went down over night. But this has happened to me before at this hotel. So much for sleeping in.If you want to stay somewhere cheap and you are easy to please this is a good stay. Otherwise find another hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r181306710-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -1241,6 +1892,42 @@
     <t>This hotel is horrible!!  Seems they are so hard up for money I don't know why they even opened.  We used our debit card and they not only authorized the WHOLE room amount but charged our card again for each night we were there.  And now we have to wait 7 days for the hold to release. However, this was never mentioned while we were checking in. I was later shown a little sign that said if I used my debit card a hold would be placed for 5-7 business days. That sign didn't tell me crap. So basically for a week we are being charged double.  The beds were very uncomfortable and for what we paid a night, I would think they could afford a upgraded mattress without springs poking you in the back. And they are so hard up for money, they can't even offer a continental breakfast. This place was the worst place I have ever stayed and the staff didn't care. I WON'T be staying here ever again, and I dang sure won't recommend this place to anyone I know.  They don't even offer ice machines, you have to check in, turn on your icemaker in the fridge in your room and WAIT for it to produce.  This place is a joke.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r168555586-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>168555586</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Nothing fancy but it works..</t>
+  </si>
+  <si>
+    <t>Pros: within walking distance to restaurants and shopping, kitchenette, fitness room (small), decent beds and showerCons: pool out of service, no breakfast, not many restaurants in areaStayed here for a 3 day business trip after another hotel in Galveston lost our reservation that was booked months in advance. The hotel provided the basics with a clean bed and working shower. They offer free coffee in the morning and have an "honor fee pantry" with various snacks. The hotel front desk was friendly. Nice Tex Mex restaurant right next door and you can walk to Penney's, Best Buy, Starbucks, Panera and WalMart in the strip mall nearby. It's a bit of a jaunt but all connected by side roads. Overall decent stay for what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros: within walking distance to restaurants and shopping, kitchenette, fitness room (small), decent beds and showerCons: pool out of service, no breakfast, not many restaurants in areaStayed here for a 3 day business trip after another hotel in Galveston lost our reservation that was booked months in advance. The hotel provided the basics with a clean bed and working shower. They offer free coffee in the morning and have an "honor fee pantry" with various snacks. The hotel front desk was friendly. Nice Tex Mex restaurant right next door and you can walk to Penney's, Best Buy, Starbucks, Panera and WalMart in the strip mall nearby. It's a bit of a jaunt but all connected by side roads. Overall decent stay for what we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r167037132-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>167037132</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Provides what you need</t>
+  </si>
+  <si>
+    <t>I was a little leery about staying here after reading the reviews. But this a new hotel and very nice. All the staff was nice, the room was nice and comfortable. I didnt get to enjoy the pool because it was always full of people, as its not that big. My only complaints are the bed is NOT a queen bed. It was very small and flimsey. The sheets could have been whiter and of better quality, and the bath towels need to be upgraded. I look forward to using big white comfy towels. We didnt have any toilet paper on the roll when we got there, but it was under the cabinet, but I would think you would put a full roll on and I wouldnt have to look for it. Also there was no face towels when we first got there and when I went to inquire about some, she said they only had one face towel til the morning. Other than that, the stay did what we needed it to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was a little leery about staying here after reading the reviews. But this a new hotel and very nice. All the staff was nice, the room was nice and comfortable. I didnt get to enjoy the pool because it was always full of people, as its not that big. My only complaints are the bed is NOT a queen bed. It was very small and flimsey. The sheets could have been whiter and of better quality, and the bath towels need to be upgraded. I look forward to using big white comfy towels. We didnt have any toilet paper on the roll when we got there, but it was under the cabinet, but I would think you would put a full roll on and I wouldnt have to look for it. Also there was no face towels when we first got there and when I went to inquire about some, she said they only had one face towel til the morning. Other than that, the stay did what we needed it to do.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r166808601-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -1295,6 +1982,36 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r161500147-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>161500147</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Texas Traveler</t>
+  </si>
+  <si>
+    <t>This is my third or fourth stay at this hotel and I have never encounter any problems. The staff always had a smile, they were warm every time I was greeted. The girl that checked us in was a sweetheart, even wished us good luck in the game. At check out I got the same warm departure. There were no issues, the rooms were cleaned and beds comfortable. I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r161483370-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>161483370</t>
+  </si>
+  <si>
+    <t>Does what it says on the tin.</t>
+  </si>
+  <si>
+    <t>Clean and reasonable hotel that gives you what you need at a good rate. Check in staff were happy and helpful. Room was fine with 2 Double beds. Handy for the freeway with easy access to plazas for all your shopping needs and easy enough to get into Houston even with commuter traffic. Downsides - Only one filter coffee in the room and you had to buy any more, Free coffee available in the lobby.Some people complain about the once-a-week housekeeping service and the fact it's not a "full service" hotel. Personally it felt more relaxed and the savings they make in staff are reflected in the room rates. Laundry being free was useful as well. Nice , clean comfortable place that's handy to use a base between Houston and Galveston,MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean and reasonable hotel that gives you what you need at a good rate. Check in staff were happy and helpful. Room was fine with 2 Double beds. Handy for the freeway with easy access to plazas for all your shopping needs and easy enough to get into Houston even with commuter traffic. Downsides - Only one filter coffee in the room and you had to buy any more, Free coffee available in the lobby.Some people complain about the once-a-week housekeeping service and the fact it's not a "full service" hotel. Personally it felt more relaxed and the savings they make in staff are reflected in the room rates. Laundry being free was useful as well. Nice , clean comfortable place that's handy to use a base between Houston and Galveston,More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r156624760-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -1364,6 +2081,45 @@
     <t>Don't stay at this hotel because the elevator breaks down and your on stuck on the 3rd floor. The grill onsite for BBQ,ing was so nasty that Chris or Myself would not use it and we both love to grill. Housekeeping would away short the room on towels and other items and the room was short all kinds of items upon check in and the staff said just tell us what you're short on like I know what they keep in the room being it was the first time I had ever stayed there.Some of the staff was friendly but was very helpful.The phone in my room would ring about every 30 minutes so I had to keep it unplugged and the hotel was unable to fix the problem. The laundry room was alway dirty and the machines also seemed to be broken and made it hard to wash clothes. The coffee maker in the on premise store was alway having problems and didn't work for over a week because they did't order coffee. If this wasn't bad enough, now the hotel will not give me my Priority club rewards points and I stayed the for 8 weeks. This was after Brenda and the original manager telling me to make sure to give them my rewards number so I would receive my points. Please don't stay at this hotel unless you want to have a crappie stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r130776831-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>130776831</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel with UNBELIEVABLE Staff</t>
+  </si>
+  <si>
+    <t>I just finished staying there 90 days. The staff gets it when it comes to customer service! Staying here is like staying with family, but without the drama:) The front desk staff always greeted me by name and would ask about my family and when were they following me. Out in public, at a local store, the Manager (LaToya) saw me and came and greeted me and invested a few minutes talking with me. I can go on and on but do not want to bore you with details...Oh yeah, room was very clean and quite comfortable. I moved to a sister property due to family joining me and needing a bigger place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I just finished staying there 90 days. The staff gets it when it comes to customer service! Staying here is like staying with family, but without the drama:) The front desk staff always greeted me by name and would ask about my family and when were they following me. Out in public, at a local store, the Manager (LaToya) saw me and came and greeted me and invested a few minutes talking with me. I can go on and on but do not want to bore you with details...Oh yeah, room was very clean and quite comfortable. I moved to a sister property due to family joining me and needing a bigger place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r124637638-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>124637638</t>
+  </si>
+  <si>
+    <t>02/15/2012</t>
+  </si>
+  <si>
+    <t>NICE! NEW!</t>
+  </si>
+  <si>
+    <t>Nice place to stay, not too far from beach, and close to Houston too!  Great places to eat and shopping near by.  clean rooms!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r121504602-Candlewood_Suites_League_City-League_City_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +2178,45 @@
   </si>
   <si>
     <t>I had a government training that I was attending and was scheduled to stay at this location.  On Feb. 2 the whole State of Texas was under severe winter weather and travel was deadly.  I called front desk/manager to cancel and advised why I was staying at location (government) and the weather conditions.  She was unconcerned and not real friendly and the County was charged the one night cancellation penalty.  I have been a travel agent for 16 years prior to working for Emergency Management and I will never book Candlewood Suites nor recommend them either.  The Texas Division of Emergency Management is informed of my situation as well and hope they also do not recommend or refer Candlewood Suites as hotel recommendation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r91958519-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>91958519</t>
+  </si>
+  <si>
+    <t>01/06/2011</t>
+  </si>
+  <si>
+    <t>Don't give them your credit card number!</t>
+  </si>
+  <si>
+    <t>Almost a month after my wife and daughter  with cerebral palsy stayed there for a medical procedure at UTMB, they charged my card for another night's stay.  We questioned the charge as soon as they ran it through and were told we had made a reservation the day before we stayed and had no-showed.  We were 200 miles away at home.  Nothing about this was mentioned at the time of our stay.  From December 8th to January 4th, nothing, then they charge us for a reservation that was never made.  We had stayed there repeatedlyfor other procedures.  They said the burden of proof was on us and that we need to fax a letter stating we did not ever make that reservation.  We did that and they ran the charge right on through.  Expect to be charged later on for extra nights if you give them your credit card number.Carlin StantonKilgore, TXMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>Almost a month after my wife and daughter  with cerebral palsy stayed there for a medical procedure at UTMB, they charged my card for another night's stay.  We questioned the charge as soon as they ran it through and were told we had made a reservation the day before we stayed and had no-showed.  We were 200 miles away at home.  Nothing about this was mentioned at the time of our stay.  From December 8th to January 4th, nothing, then they charge us for a reservation that was never made.  We had stayed there repeatedlyfor other procedures.  They said the burden of proof was on us and that we need to fax a letter stating we did not ever make that reservation.  We did that and they ran the charge right on through.  Expect to be charged later on for extra nights if you give them your credit card number.Carlin StantonKilgore, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r82347479-Candlewood_Suites_League_City-League_City_Texas.html</t>
+  </si>
+  <si>
+    <t>82347479</t>
+  </si>
+  <si>
+    <t>10/06/2010</t>
+  </si>
+  <si>
+    <t>Great stay!!!!</t>
+  </si>
+  <si>
+    <t>My stay was warm and relaxing. This was my first family vacation with my husband and children. Candlewood staff made us feel welcomed from the time we walked in to the time we checked out. I will love to come back to this wonderful clean and beautiful hotel. My family thanks you!</t>
+  </si>
+  <si>
+    <t>October 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56144-d1549592-r70625955-Candlewood_Suites_League_City-League_City_Texas.html</t>
@@ -2034,13 +2829,13 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2051,10 +2846,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2070,34 +2869,34 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2111,7 +2910,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -2127,7 +2926,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -2136,43 +2935,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -2188,7 +2983,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2197,25 +2992,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2226,14 +3021,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2249,35 +3040,31 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" t="s">
-        <v>71</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2287,14 +3074,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X7" t="s">
-        <v>88</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2310,7 +3093,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2319,25 +3102,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2351,7 +3134,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -2367,7 +3150,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2376,39 +3159,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -2424,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2433,45 +3220,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" t="s">
+        <v>103</v>
+      </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -2487,7 +3272,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2496,49 +3281,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2554,48 +3333,58 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
         <v>118</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2611,38 +3400,38 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
         <v>124</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>125</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>126</v>
       </c>
-      <c r="K13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>102</v>
-      </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
@@ -2654,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
@@ -2676,34 +3465,34 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
         <v>132</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>133</v>
       </c>
-      <c r="J14" t="s">
+      <c r="O14" t="s">
         <v>134</v>
-      </c>
-      <c r="K14" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>137</v>
-      </c>
-      <c r="O14" t="s">
-        <v>138</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2717,7 +3506,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -2733,31 +3522,35 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>140</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" t="s">
-        <v>144</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -2770,7 +3563,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -2786,48 +3579,54 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
         <v>145</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>146</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>147</v>
       </c>
-      <c r="K16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" t="s">
-        <v>149</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>137</v>
-      </c>
       <c r="O16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2843,52 +3642,48 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
         <v>150</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>151</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>152</v>
       </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" t="s">
-        <v>154</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2904,52 +3699,48 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
         <v>155</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>156</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>157</v>
-      </c>
-      <c r="K18" t="s">
-        <v>158</v>
-      </c>
-      <c r="L18" t="s">
-        <v>159</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
@@ -2965,48 +3756,58 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
         <v>160</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>161</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>162</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>163</v>
       </c>
-      <c r="L19" t="s">
-        <v>164</v>
-      </c>
       <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
         <v>4</v>
       </c>
-      <c r="N19" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>164</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -3022,7 +3823,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -3031,25 +3832,25 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3063,7 +3864,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -3079,7 +3880,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3088,34 +3889,32 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -3170,32 +3969,24 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>178</v>
-      </c>
-      <c r="X22" t="s">
-        <v>179</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
@@ -3211,56 +4002,52 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
         <v>188</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>189</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>190</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>191</v>
       </c>
-      <c r="L23" t="s">
-        <v>192</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>193</v>
-      </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>194</v>
-      </c>
-      <c r="X23" t="s">
-        <v>195</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -3276,7 +4063,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3285,25 +4072,25 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3317,7 +4104,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
@@ -3333,7 +4120,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3342,26 +4129,22 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
-      <c r="N25" t="s">
-        <v>193</v>
-      </c>
-      <c r="O25" t="s">
-        <v>52</v>
-      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
@@ -3374,7 +4157,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -3390,7 +4173,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3399,49 +4182,39 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>214</v>
-      </c>
-      <c r="X26" t="s">
-        <v>215</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -3457,7 +4230,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3466,49 +4239,39 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="O27" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>223</v>
-      </c>
-      <c r="X27" t="s">
-        <v>224</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
@@ -3524,7 +4287,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3533,49 +4296,45 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="X28" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
@@ -3591,7 +4350,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3600,34 +4359,32 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="O29" t="s">
-        <v>138</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3635,14 +4392,10 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>214</v>
-      </c>
-      <c r="X29" t="s">
-        <v>215</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
@@ -3658,7 +4411,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3667,43 +4420,43 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="O30" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>214</v>
-      </c>
-      <c r="X30" t="s">
-        <v>215</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
@@ -3719,7 +4472,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3728,25 +4481,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3757,14 +4510,10 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>214</v>
-      </c>
-      <c r="X31" t="s">
-        <v>215</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32">
@@ -3780,7 +4529,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3789,34 +4538,34 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="J32" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K32" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="O32" t="s">
-        <v>138</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3827,7 +4576,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33">
@@ -3843,7 +4592,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3852,39 +4601,43 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="K33" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
@@ -3900,7 +4653,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3909,45 +4662,39 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
@@ -3963,7 +4710,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3972,43 +4719,49 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>258</v>
+      </c>
+      <c r="X35" t="s">
+        <v>259</v>
+      </c>
       <c r="Y35" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36">
@@ -4024,7 +4777,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4033,39 +4786,47 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>258</v>
+      </c>
+      <c r="X36" t="s">
+        <v>259</v>
+      </c>
       <c r="Y36" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
@@ -4081,7 +4842,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4090,39 +4851,43 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>266</v>
+      </c>
+      <c r="O37" t="s">
+        <v>158</v>
+      </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>286</v>
-      </c>
-      <c r="X37" t="s">
-        <v>287</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38">
@@ -4138,7 +4903,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4147,49 +4912,39 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="K38" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="O38" t="s">
-        <v>138</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>295</v>
-      </c>
-      <c r="X38" t="s">
-        <v>296</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
@@ -4205,7 +4960,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4214,43 +4969,47 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="J39" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K39" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="X39" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="Y39" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -4266,7 +5025,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4275,47 +5034,39 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J40" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="K40" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>313</v>
-      </c>
-      <c r="X40" t="s">
-        <v>314</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41">
@@ -4331,7 +5082,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4340,25 +5091,25 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="J41" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="K41" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4369,14 +5120,10 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>322</v>
-      </c>
-      <c r="X41" t="s">
-        <v>323</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
@@ -4392,7 +5139,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4401,47 +5148,39 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>1</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>331</v>
-      </c>
-      <c r="X42" t="s">
-        <v>332</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
@@ -4457,7 +5196,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4466,45 +5205,43 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="J43" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="X43" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="Y43" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44">
@@ -4520,7 +5257,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4529,49 +5266,49 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="J44" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="O44" t="s">
-        <v>138</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="X44" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="Y44" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45">
@@ -4587,7 +5324,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4596,49 +5333,49 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="J45" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="K45" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O45" t="s">
-        <v>138</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="X45" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="Y45" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46">
@@ -4654,7 +5391,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4663,38 +5400,34 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="J46" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="O46" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4703,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="X46" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="Y46" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47">
@@ -4725,7 +5458,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4734,43 +5467,47 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
-      </c>
-      <c r="P47" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="X47" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="Y47" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48">
@@ -4786,7 +5523,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4795,53 +5532,43 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="J48" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>4</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="X48" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="Y48" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49">
@@ -4857,7 +5584,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4866,53 +5593,49 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="J49" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="K49" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
+        <v>316</v>
+      </c>
+      <c r="X49" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y49" t="s">
         <v>353</v>
-      </c>
-      <c r="X49" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="50">
@@ -4928,7 +5651,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4937,25 +5660,25 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="J50" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="K50" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4966,10 +5689,14 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>316</v>
+      </c>
+      <c r="X50" t="s">
+        <v>317</v>
+      </c>
       <c r="Y50" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51">
@@ -4985,7 +5712,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -4994,49 +5721,43 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="J51" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="K51" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>316</v>
+      </c>
+      <c r="X51" t="s">
+        <v>317</v>
+      </c>
       <c r="Y51" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52">
@@ -5052,7 +5773,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5061,53 +5782,39 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="J52" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="K52" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>404</v>
-      </c>
-      <c r="X52" t="s">
-        <v>405</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53">
@@ -5123,7 +5830,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5132,53 +5839,45 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="J53" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="K53" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>412</v>
-      </c>
-      <c r="X53" t="s">
-        <v>413</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54">
@@ -5194,7 +5893,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5203,37 +5902,37 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="K54" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="L54" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>382</v>
+      </c>
+      <c r="O54" t="s">
+        <v>158</v>
+      </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5241,7 +5940,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55">
@@ -5257,7 +5956,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5266,49 +5965,39 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="J55" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="K55" t="s">
-        <v>158</v>
+        <v>387</v>
       </c>
       <c r="L55" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56">
@@ -5324,7 +6013,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5333,53 +6022,45 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="J56" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="K56" t="s">
-        <v>428</v>
+        <v>343</v>
       </c>
       <c r="L56" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>430</v>
+        <v>345</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>431</v>
-      </c>
-      <c r="X56" t="s">
-        <v>432</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57">
@@ -5395,7 +6076,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5404,38 +6085,32 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="J57" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="K57" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="L57" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>5</v>
@@ -5446,7 +6121,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58">
@@ -5462,7 +6137,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5471,53 +6146,43 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="J58" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="L58" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="O58" t="s">
-        <v>138</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>445</v>
-      </c>
-      <c r="X58" t="s">
-        <v>446</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59">
@@ -5533,7 +6198,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5542,37 +6207,31 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="J59" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="K59" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="L59" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="O59" t="s">
-        <v>138</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
@@ -5584,7 +6243,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60">
@@ -5600,7 +6259,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5609,45 +6268,39 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="J60" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="K60" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="L60" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="O60" t="s">
-        <v>96</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>2</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61">
@@ -5663,7 +6316,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5672,41 +6325,39 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="J61" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="K61" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="L61" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
-      <c r="N61" t="s">
-        <v>466</v>
-      </c>
-      <c r="O61" t="s">
-        <v>138</v>
-      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
       <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>1</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>422</v>
+      </c>
+      <c r="X61" t="s">
+        <v>423</v>
+      </c>
       <c r="Y61" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62">
@@ -5722,7 +6373,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -5731,49 +6382,2843 @@
         <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="J62" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="K62" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="L62" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
-      </c>
-      <c r="P62" t="n">
-        <v>3</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="n">
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
-      </c>
-      <c r="S62" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>431</v>
+      </c>
+      <c r="X62" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>439</v>
+      </c>
+      <c r="O63" t="s">
+        <v>158</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>440</v>
+      </c>
+      <c r="X63" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>443</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>444</v>
+      </c>
+      <c r="J64" t="s">
+        <v>445</v>
+      </c>
+      <c r="K64" t="s">
+        <v>446</v>
+      </c>
+      <c r="L64" t="s">
+        <v>447</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>439</v>
+      </c>
+      <c r="O64" t="s">
+        <v>158</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>448</v>
+      </c>
+      <c r="X64" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>451</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J65" t="s">
+        <v>453</v>
+      </c>
+      <c r="K65" t="s">
+        <v>454</v>
+      </c>
+      <c r="L65" t="s">
+        <v>455</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>456</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>457</v>
+      </c>
+      <c r="X65" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>460</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>461</v>
+      </c>
+      <c r="J66" t="s">
+        <v>462</v>
+      </c>
+      <c r="K66" t="s">
+        <v>463</v>
+      </c>
+      <c r="L66" t="s">
+        <v>464</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>465</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>466</v>
+      </c>
+      <c r="X66" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>469</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>470</v>
+      </c>
+      <c r="J67" t="s">
+        <v>471</v>
+      </c>
+      <c r="K67" t="s">
+        <v>472</v>
+      </c>
+      <c r="L67" t="s">
+        <v>473</v>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s">
+      <c r="N67" t="s">
         <v>474</v>
+      </c>
+      <c r="O67" t="s">
+        <v>158</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>475</v>
+      </c>
+      <c r="X67" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>478</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>479</v>
+      </c>
+      <c r="J68" t="s">
+        <v>480</v>
+      </c>
+      <c r="K68" t="s">
+        <v>481</v>
+      </c>
+      <c r="L68" t="s">
+        <v>482</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>483</v>
+      </c>
+      <c r="X68" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>486</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>487</v>
+      </c>
+      <c r="J69" t="s">
+        <v>488</v>
+      </c>
+      <c r="K69" t="s">
+        <v>489</v>
+      </c>
+      <c r="L69" t="s">
+        <v>490</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>491</v>
+      </c>
+      <c r="O69" t="s">
+        <v>134</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>492</v>
+      </c>
+      <c r="X69" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>495</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>496</v>
+      </c>
+      <c r="J70" t="s">
+        <v>497</v>
+      </c>
+      <c r="K70" t="s">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s">
+        <v>499</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>500</v>
+      </c>
+      <c r="O70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>501</v>
+      </c>
+      <c r="X70" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>504</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>505</v>
+      </c>
+      <c r="J71" t="s">
+        <v>506</v>
+      </c>
+      <c r="K71" t="s">
+        <v>507</v>
+      </c>
+      <c r="L71" t="s">
+        <v>508</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>500</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>501</v>
+      </c>
+      <c r="X71" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>510</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>511</v>
+      </c>
+      <c r="J72" t="s">
+        <v>512</v>
+      </c>
+      <c r="K72" t="s">
+        <v>513</v>
+      </c>
+      <c r="L72" t="s">
+        <v>514</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>515</v>
+      </c>
+      <c r="X72" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>518</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>519</v>
+      </c>
+      <c r="J73" t="s">
+        <v>520</v>
+      </c>
+      <c r="K73" t="s">
+        <v>521</v>
+      </c>
+      <c r="L73" t="s">
+        <v>522</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>500</v>
+      </c>
+      <c r="O73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>515</v>
+      </c>
+      <c r="X73" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>524</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>525</v>
+      </c>
+      <c r="J74" t="s">
+        <v>526</v>
+      </c>
+      <c r="K74" t="s">
+        <v>527</v>
+      </c>
+      <c r="L74" t="s">
+        <v>528</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>491</v>
+      </c>
+      <c r="O74" t="s">
+        <v>158</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>529</v>
+      </c>
+      <c r="X74" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>532</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>533</v>
+      </c>
+      <c r="J75" t="s">
+        <v>534</v>
+      </c>
+      <c r="K75" t="s">
+        <v>535</v>
+      </c>
+      <c r="L75" t="s">
+        <v>536</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>491</v>
+      </c>
+      <c r="O75" t="s">
+        <v>158</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>537</v>
+      </c>
+      <c r="X75" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>540</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>541</v>
+      </c>
+      <c r="J76" t="s">
+        <v>542</v>
+      </c>
+      <c r="K76" t="s">
+        <v>543</v>
+      </c>
+      <c r="L76" t="s">
+        <v>544</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>545</v>
+      </c>
+      <c r="O76" t="s">
+        <v>158</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>546</v>
+      </c>
+      <c r="X76" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>549</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>550</v>
+      </c>
+      <c r="J77" t="s">
+        <v>551</v>
+      </c>
+      <c r="K77" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" t="s">
+        <v>552</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>553</v>
+      </c>
+      <c r="O77" t="s">
+        <v>158</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>554</v>
+      </c>
+      <c r="X77" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>557</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>558</v>
+      </c>
+      <c r="J78" t="s">
+        <v>559</v>
+      </c>
+      <c r="K78" t="s">
+        <v>560</v>
+      </c>
+      <c r="L78" t="s">
+        <v>561</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>553</v>
+      </c>
+      <c r="O78" t="s">
+        <v>158</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>562</v>
+      </c>
+      <c r="X78" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>565</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>566</v>
+      </c>
+      <c r="J79" t="s">
+        <v>567</v>
+      </c>
+      <c r="K79" t="s">
+        <v>568</v>
+      </c>
+      <c r="L79" t="s">
+        <v>569</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>553</v>
+      </c>
+      <c r="O79" t="s">
+        <v>89</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>570</v>
+      </c>
+      <c r="X79" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>573</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>574</v>
+      </c>
+      <c r="J80" t="s">
+        <v>575</v>
+      </c>
+      <c r="K80" t="s">
+        <v>576</v>
+      </c>
+      <c r="L80" t="s">
+        <v>577</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>553</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>537</v>
+      </c>
+      <c r="X80" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>579</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>580</v>
+      </c>
+      <c r="J81" t="s">
+        <v>581</v>
+      </c>
+      <c r="K81" t="s">
+        <v>582</v>
+      </c>
+      <c r="L81" t="s">
+        <v>583</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>553</v>
+      </c>
+      <c r="O81" t="s">
+        <v>89</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>537</v>
+      </c>
+      <c r="X81" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>585</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>586</v>
+      </c>
+      <c r="J82" t="s">
+        <v>587</v>
+      </c>
+      <c r="K82" t="s">
+        <v>588</v>
+      </c>
+      <c r="L82" t="s">
+        <v>589</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>590</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>537</v>
+      </c>
+      <c r="X82" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>592</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>593</v>
+      </c>
+      <c r="J83" t="s">
+        <v>594</v>
+      </c>
+      <c r="K83" t="s">
+        <v>595</v>
+      </c>
+      <c r="L83" t="s">
+        <v>596</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>597</v>
+      </c>
+      <c r="O83" t="s">
+        <v>89</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>598</v>
+      </c>
+      <c r="X83" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>601</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>602</v>
+      </c>
+      <c r="J84" t="s">
+        <v>603</v>
+      </c>
+      <c r="K84" t="s">
+        <v>604</v>
+      </c>
+      <c r="L84" t="s">
+        <v>605</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>606</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>608</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>609</v>
+      </c>
+      <c r="J85" t="s">
+        <v>610</v>
+      </c>
+      <c r="K85" t="s">
+        <v>611</v>
+      </c>
+      <c r="L85" t="s">
+        <v>612</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>613</v>
+      </c>
+      <c r="O85" t="s">
+        <v>89</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>615</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>616</v>
+      </c>
+      <c r="J86" t="s">
+        <v>610</v>
+      </c>
+      <c r="K86" t="s">
+        <v>617</v>
+      </c>
+      <c r="L86" t="s">
+        <v>618</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>613</v>
+      </c>
+      <c r="O86" t="s">
+        <v>89</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>619</v>
+      </c>
+      <c r="X86" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>622</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>623</v>
+      </c>
+      <c r="J87" t="s">
+        <v>624</v>
+      </c>
+      <c r="K87" t="s">
+        <v>625</v>
+      </c>
+      <c r="L87" t="s">
+        <v>626</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>628</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>629</v>
+      </c>
+      <c r="J88" t="s">
+        <v>630</v>
+      </c>
+      <c r="K88" t="s">
+        <v>631</v>
+      </c>
+      <c r="L88" t="s">
+        <v>632</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>613</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>634</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>635</v>
+      </c>
+      <c r="J89" t="s">
+        <v>636</v>
+      </c>
+      <c r="K89" t="s">
+        <v>637</v>
+      </c>
+      <c r="L89" t="s">
+        <v>638</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>613</v>
+      </c>
+      <c r="O89" t="s">
+        <v>89</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>639</v>
+      </c>
+      <c r="X89" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>642</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>643</v>
+      </c>
+      <c r="J90" t="s">
+        <v>644</v>
+      </c>
+      <c r="K90" t="s">
+        <v>645</v>
+      </c>
+      <c r="L90" t="s">
+        <v>646</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>647</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>648</v>
+      </c>
+      <c r="J91" t="s">
+        <v>649</v>
+      </c>
+      <c r="K91" t="s">
+        <v>228</v>
+      </c>
+      <c r="L91" t="s">
+        <v>650</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>651</v>
+      </c>
+      <c r="O91" t="s">
+        <v>89</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>652</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>653</v>
+      </c>
+      <c r="J92" t="s">
+        <v>654</v>
+      </c>
+      <c r="K92" t="s">
+        <v>655</v>
+      </c>
+      <c r="L92" t="s">
+        <v>656</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>590</v>
+      </c>
+      <c r="O92" t="s">
+        <v>89</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>657</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>658</v>
+      </c>
+      <c r="J93" t="s">
+        <v>654</v>
+      </c>
+      <c r="K93" t="s">
+        <v>659</v>
+      </c>
+      <c r="L93" t="s">
+        <v>660</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>651</v>
+      </c>
+      <c r="O93" t="s">
+        <v>89</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>662</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>663</v>
+      </c>
+      <c r="J94" t="s">
+        <v>664</v>
+      </c>
+      <c r="K94" t="s">
+        <v>665</v>
+      </c>
+      <c r="L94" t="s">
+        <v>666</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>667</v>
+      </c>
+      <c r="O94" t="s">
+        <v>59</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>668</v>
+      </c>
+      <c r="X94" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>671</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>672</v>
+      </c>
+      <c r="J95" t="s">
+        <v>673</v>
+      </c>
+      <c r="K95" t="s">
+        <v>674</v>
+      </c>
+      <c r="L95" t="s">
+        <v>675</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>667</v>
+      </c>
+      <c r="O95" t="s">
+        <v>89</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>676</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>677</v>
+      </c>
+      <c r="J96" t="s">
+        <v>678</v>
+      </c>
+      <c r="K96" t="s">
+        <v>679</v>
+      </c>
+      <c r="L96" t="s">
+        <v>680</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>681</v>
+      </c>
+      <c r="O96" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>682</v>
+      </c>
+      <c r="X96" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>685</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>686</v>
+      </c>
+      <c r="J97" t="s">
+        <v>687</v>
+      </c>
+      <c r="K97" t="s">
+        <v>688</v>
+      </c>
+      <c r="L97" t="s">
+        <v>689</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>690</v>
+      </c>
+      <c r="O97" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>692</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>693</v>
+      </c>
+      <c r="J98" t="s">
+        <v>694</v>
+      </c>
+      <c r="K98" t="s">
+        <v>695</v>
+      </c>
+      <c r="L98" t="s">
+        <v>696</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>697</v>
+      </c>
+      <c r="O98" t="s">
+        <v>89</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>698</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>699</v>
+      </c>
+      <c r="J99" t="s">
+        <v>700</v>
+      </c>
+      <c r="K99" t="s">
+        <v>701</v>
+      </c>
+      <c r="L99" t="s">
+        <v>702</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>703</v>
+      </c>
+      <c r="O99" t="s">
+        <v>158</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>704</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>705</v>
+      </c>
+      <c r="J100" t="s">
+        <v>706</v>
+      </c>
+      <c r="K100" t="s">
+        <v>707</v>
+      </c>
+      <c r="L100" t="s">
+        <v>708</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>709</v>
+      </c>
+      <c r="O100" t="s">
+        <v>134</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>711</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>712</v>
+      </c>
+      <c r="J101" t="s">
+        <v>713</v>
+      </c>
+      <c r="K101" t="s">
+        <v>714</v>
+      </c>
+      <c r="L101" t="s">
+        <v>715</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>716</v>
+      </c>
+      <c r="O101" t="s">
+        <v>158</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>718</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>719</v>
+      </c>
+      <c r="J102" t="s">
+        <v>720</v>
+      </c>
+      <c r="K102" t="s">
+        <v>721</v>
+      </c>
+      <c r="L102" t="s">
+        <v>722</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>723</v>
+      </c>
+      <c r="O102" t="s">
+        <v>158</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>725</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>726</v>
+      </c>
+      <c r="J103" t="s">
+        <v>727</v>
+      </c>
+      <c r="K103" t="s">
+        <v>728</v>
+      </c>
+      <c r="L103" t="s">
+        <v>729</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>730</v>
+      </c>
+      <c r="O103" t="s">
+        <v>89</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59923</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>731</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>732</v>
+      </c>
+      <c r="J104" t="s">
+        <v>733</v>
+      </c>
+      <c r="K104" t="s">
+        <v>734</v>
+      </c>
+      <c r="L104" t="s">
+        <v>735</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>736</v>
+      </c>
+      <c r="O104" t="s">
+        <v>59</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
